--- a/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>5.084217071533203</v>
+        <v>5.197350025177002</v>
       </c>
       <c r="C2">
-        <v>6.687487125396729</v>
+        <v>5.402363777160645</v>
       </c>
       <c r="D2">
-        <v>-1.038351774215698</v>
+        <v>-0.2985483407974243</v>
       </c>
       <c r="E2">
-        <v>4.43668794631958</v>
+        <v>3.642739057540894</v>
       </c>
       <c r="F2">
-        <v>-0.1313624531030655</v>
+        <v>0.5356053113937378</v>
       </c>
       <c r="G2">
-        <v>6.354785919189453</v>
+        <v>7.34958028793335</v>
       </c>
       <c r="H2">
-        <v>-0.3992557227611542</v>
+        <v>-0.1403519809246063</v>
       </c>
       <c r="I2">
-        <v>1.796908140182495</v>
+        <v>2.062853574752808</v>
       </c>
       <c r="J2">
-        <v>-0.01772812567651272</v>
+        <v>0.3160881996154785</v>
       </c>
       <c r="K2">
-        <v>0.9619128704071045</v>
+        <v>-0.05837374925613403</v>
       </c>
       <c r="L2">
-        <v>-0.3221465349197388</v>
+        <v>0.4738812148571014</v>
       </c>
       <c r="M2">
-        <v>-1.082305908203125</v>
+        <v>-0.6585984826087952</v>
       </c>
       <c r="N2">
-        <v>1.334437131881714</v>
+        <v>0.7227603197097778</v>
       </c>
       <c r="O2">
-        <v>-6.480628967285156</v>
+        <v>-7.184821605682373</v>
       </c>
       <c r="P2">
-        <v>13.84065055847168</v>
+        <v>12.7729320526123</v>
       </c>
       <c r="Q2">
-        <v>0.9971478581428528</v>
+        <v>0.35405632853508</v>
       </c>
       <c r="R2">
-        <v>0.1296203136444092</v>
+        <v>0.5760982036590576</v>
       </c>
       <c r="S2">
-        <v>-8.296757698059082</v>
+        <v>-8.926457405090332</v>
       </c>
       <c r="T2">
-        <v>-5.323066711425781</v>
+        <v>-4.527777671813965</v>
       </c>
       <c r="U2">
-        <v>-1.306346297264099</v>
+        <v>-0.1731189340353012</v>
       </c>
       <c r="V2">
-        <v>-0.1698442846536636</v>
+        <v>0.4781391322612762</v>
       </c>
       <c r="W2">
-        <v>1.988051056861877</v>
+        <v>0.8716406226158142</v>
       </c>
       <c r="X2">
-        <v>-0.271552562713623</v>
+        <v>-1.445695281028748</v>
       </c>
       <c r="Y2">
-        <v>-2.186413049697876</v>
+        <v>-2.926834583282471</v>
       </c>
       <c r="Z2">
-        <v>2.585547685623169</v>
+        <v>2.207877397537231</v>
       </c>
       <c r="AA2">
-        <v>-0.8803752064704895</v>
+        <v>-1.903179407119751</v>
       </c>
       <c r="AB2">
-        <v>-3.163242101669312</v>
+        <v>-3.44116473197937</v>
       </c>
       <c r="AC2">
-        <v>-8.258949279785156</v>
+        <v>-8.19062328338623</v>
       </c>
       <c r="AD2">
-        <v>0.8162122964859009</v>
+        <v>0.8071146607398987</v>
       </c>
       <c r="AE2">
-        <v>9.984663009643555</v>
+        <v>10.03743362426758</v>
       </c>
       <c r="AF2">
-        <v>1.134881258010864</v>
+        <v>1.625801205635071</v>
       </c>
       <c r="AG2">
-        <v>-17.17162322998047</v>
+        <v>-17.55303573608398</v>
       </c>
       <c r="AH2">
-        <v>-12.20003986358643</v>
+        <v>-12.24478626251221</v>
       </c>
       <c r="AI2">
-        <v>6.465798854827881</v>
+        <v>6.593719959259033</v>
       </c>
       <c r="AJ2">
-        <v>-1.414331078529358</v>
+        <v>-1.09757125377655</v>
       </c>
       <c r="AK2">
-        <v>-0.4215598404407501</v>
+        <v>-1.36684262752533</v>
       </c>
       <c r="AL2">
-        <v>2.391035795211792</v>
+        <v>2.04464316368103</v>
       </c>
       <c r="AM2">
-        <v>-1.708005905151367</v>
+        <v>-1.454870581626892</v>
       </c>
       <c r="AN2">
-        <v>8.388172149658203</v>
+        <v>8.203741073608398</v>
       </c>
       <c r="AO2">
-        <v>6.857299327850342</v>
+        <v>7.481372833251953</v>
       </c>
       <c r="AP2">
-        <v>1.712396502494812</v>
+        <v>1.313327193260193</v>
       </c>
       <c r="AQ2">
-        <v>0.6175947189331055</v>
+        <v>0.737349808216095</v>
       </c>
       <c r="AR2">
-        <v>-11.50239086151123</v>
+        <v>-12.17894649505615</v>
       </c>
       <c r="AS2">
-        <v>7.226997852325439</v>
+        <v>7.005970478057861</v>
       </c>
       <c r="AT2">
-        <v>-1.716612339019775</v>
+        <v>-1.053947687149048</v>
       </c>
       <c r="AU2">
-        <v>-8.621110916137695</v>
+        <v>-8.528359413146973</v>
       </c>
       <c r="AV2">
-        <v>-0.9081801176071167</v>
+        <v>-1.017090797424316</v>
       </c>
       <c r="AW2">
-        <v>-3.83009147644043</v>
+        <v>-4.212361335754395</v>
       </c>
       <c r="AX2">
-        <v>4.213378429412842</v>
+        <v>5.157546043395996</v>
       </c>
       <c r="AY2">
-        <v>2.087746143341064</v>
+        <v>1.294428706169128</v>
       </c>
       <c r="AZ2">
-        <v>16.63636589050293</v>
+        <v>15.8335132598877</v>
       </c>
       <c r="BA2">
-        <v>-1.229115128517151</v>
+        <v>-2.340118408203125</v>
       </c>
       <c r="BB2">
-        <v>0.1371339857578278</v>
+        <v>0.8322262763977051</v>
       </c>
       <c r="BC2">
-        <v>-2.006035566329956</v>
+        <v>-1.870570540428162</v>
       </c>
       <c r="BD2">
-        <v>1.178068161010742</v>
+        <v>1.163674592971802</v>
       </c>
       <c r="BE2">
-        <v>-1.226126432418823</v>
+        <v>-1.218195796012878</v>
       </c>
       <c r="BF2">
-        <v>2.091630697250366</v>
+        <v>2.253861904144287</v>
       </c>
       <c r="BG2">
-        <v>-0.02773732878267765</v>
+        <v>0.1054539456963539</v>
       </c>
       <c r="BH2">
-        <v>0.4242588579654694</v>
+        <v>-0.2814184129238129</v>
       </c>
       <c r="BI2">
-        <v>0.2962148785591125</v>
+        <v>0.5361484289169312</v>
       </c>
       <c r="BJ2">
-        <v>5.502483367919922</v>
+        <v>5.378032207489014</v>
       </c>
       <c r="BK2">
-        <v>-0.4455478489398956</v>
+        <v>-0.6488617658615112</v>
       </c>
       <c r="BL2">
-        <v>0.6871317028999329</v>
+        <v>1.050559401512146</v>
       </c>
       <c r="BM2">
-        <v>-1.704592347145081</v>
+        <v>-0.7793347835540771</v>
       </c>
       <c r="BN2">
-        <v>-8.656093597412109</v>
+        <v>-7.845675468444824</v>
       </c>
       <c r="BO2">
-        <v>-12.03286170959473</v>
+        <v>-13.22616481781006</v>
       </c>
       <c r="BP2">
-        <v>-2.101122140884399</v>
+        <v>-2.691433668136597</v>
       </c>
       <c r="BQ2">
-        <v>-0.507122278213501</v>
+        <v>0.02734298445284367</v>
       </c>
       <c r="BR2">
-        <v>-0.5537140965461731</v>
+        <v>0.07670880109071732</v>
       </c>
       <c r="BS2">
-        <v>0.4064542651176453</v>
+        <v>-0.1110810339450836</v>
       </c>
       <c r="BT2">
-        <v>1.830726146697998</v>
+        <v>0.7956709265708923</v>
       </c>
       <c r="BU2">
-        <v>0.07805535942316055</v>
+        <v>0.6916828751564026</v>
       </c>
       <c r="BV2">
-        <v>-13.19921493530273</v>
+        <v>-12.19068145751953</v>
       </c>
       <c r="BW2">
-        <v>0.7777884602546692</v>
+        <v>0.649927020072937</v>
       </c>
       <c r="BX2">
-        <v>5.444467544555664</v>
+        <v>5.820737838745117</v>
       </c>
       <c r="BY2">
-        <v>1.615998268127441</v>
+        <v>0.7117476463317871</v>
       </c>
       <c r="BZ2">
-        <v>-0.6363953948020935</v>
+        <v>-0.4104751646518707</v>
       </c>
       <c r="CA2">
-        <v>6.127957820892334</v>
+        <v>5.853409767150879</v>
       </c>
       <c r="CB2">
-        <v>-0.8244205117225647</v>
+        <v>-1.347455501556396</v>
       </c>
       <c r="CC2">
-        <v>1.462978601455688</v>
+        <v>1.952802658081055</v>
       </c>
       <c r="CD2">
-        <v>0.3180109560489655</v>
+        <v>1.500953316688538</v>
       </c>
       <c r="CE2">
-        <v>-4.31666374206543</v>
+        <v>-4.4168381690979</v>
       </c>
       <c r="CF2">
-        <v>-1.425762534141541</v>
+        <v>-1.475733995437622</v>
       </c>
       <c r="CG2">
-        <v>-0.5621892213821411</v>
+        <v>-0.2582946419715881</v>
       </c>
       <c r="CH2">
-        <v>2.694395542144775</v>
+        <v>3.235831022262573</v>
       </c>
       <c r="CI2">
-        <v>0.02055332623422146</v>
+        <v>-0.4334268569946289</v>
       </c>
       <c r="CJ2">
-        <v>-12.75544357299805</v>
+        <v>-13.67593383789062</v>
       </c>
       <c r="CK2">
-        <v>-0.4280491471290588</v>
+        <v>0.4662584364414215</v>
       </c>
       <c r="CL2">
-        <v>-2.759978294372559</v>
+        <v>-2.048622131347656</v>
       </c>
       <c r="CM2">
-        <v>8.617269515991211</v>
+        <v>8.310378074645996</v>
       </c>
       <c r="CN2">
-        <v>-2.683583498001099</v>
+        <v>-2.400884866714478</v>
       </c>
       <c r="CO2">
-        <v>0.6915808320045471</v>
+        <v>0.2011439055204391</v>
       </c>
       <c r="CP2">
-        <v>6.493088722229004</v>
+        <v>5.777655601501465</v>
       </c>
       <c r="CQ2">
-        <v>8.551749229431152</v>
+        <v>7.660449028015137</v>
       </c>
       <c r="CR2">
-        <v>-1.581748008728027</v>
+        <v>-2.225926637649536</v>
       </c>
       <c r="CS2">
-        <v>1.222494721412659</v>
+        <v>0.07728927582502365</v>
       </c>
       <c r="CT2">
-        <v>-1.5285404920578</v>
+        <v>-0.995658814907074</v>
       </c>
       <c r="CU2">
-        <v>2.029531478881836</v>
+        <v>1.108274579048157</v>
       </c>
       <c r="CV2">
-        <v>-0.2983308732509613</v>
+        <v>-0.9795756936073303</v>
       </c>
       <c r="CW2">
-        <v>-2.374471187591553</v>
+        <v>-1.858916759490967</v>
       </c>
       <c r="CX2">
-        <v>1.629146933555603</v>
+        <v>0.3607054352760315</v>
       </c>
       <c r="CY2">
-        <v>-3.842963695526123</v>
+        <v>-4.359256267547607</v>
       </c>
       <c r="CZ2">
-        <v>0.4663495123386383</v>
+        <v>-0.5851970911026001</v>
       </c>
       <c r="DA2">
-        <v>-11.4949426651001</v>
+        <v>-12.63682174682617</v>
       </c>
       <c r="DB2">
-        <v>1.336614727973938</v>
+        <v>0.6969353556632996</v>
       </c>
       <c r="DC2">
-        <v>2.570921897888184</v>
+        <v>1.790718197822571</v>
       </c>
       <c r="DD2">
-        <v>-10.34308910369873</v>
+        <v>-9.661716461181641</v>
       </c>
       <c r="DE2">
-        <v>-1.033434391021729</v>
+        <v>-2.070027589797974</v>
       </c>
       <c r="DF2">
-        <v>8.443930625915527</v>
+        <v>9.199907302856445</v>
       </c>
       <c r="DG2">
-        <v>-0.1631250381469727</v>
+        <v>-0.04201537743210793</v>
       </c>
       <c r="DH2">
-        <v>8.020237922668457</v>
+        <v>7.733939647674561</v>
       </c>
       <c r="DI2">
-        <v>-0.6539382338523865</v>
+        <v>-0.03350955620408058</v>
       </c>
       <c r="DJ2">
-        <v>-10.21089172363281</v>
+        <v>-9.359619140625</v>
       </c>
       <c r="DK2">
-        <v>7.004184722900391</v>
+        <v>7.143924713134766</v>
       </c>
       <c r="DL2">
-        <v>-1.046054720878601</v>
+        <v>-0.2635137736797333</v>
       </c>
       <c r="DM2">
-        <v>-4.064661502838135</v>
+        <v>-5.428637981414795</v>
       </c>
       <c r="DN2">
-        <v>-0.1689175218343735</v>
+        <v>-0.0966012105345726</v>
       </c>
       <c r="DO2">
-        <v>-2.396216869354248</v>
+        <v>-3.199776887893677</v>
       </c>
       <c r="DP2">
-        <v>-2.241488695144653</v>
+        <v>-2.840302228927612</v>
       </c>
       <c r="DQ2">
-        <v>0.4651742577552795</v>
+        <v>-0.5287496447563171</v>
       </c>
       <c r="DR2">
-        <v>2.94705867767334</v>
+        <v>2.043413639068604</v>
       </c>
       <c r="DS2">
-        <v>2.879735946655273</v>
+        <v>1.519859552383423</v>
       </c>
       <c r="DT2">
-        <v>5.174842834472656</v>
+        <v>6.171539306640625</v>
       </c>
       <c r="DU2">
-        <v>-11.12298965454102</v>
+        <v>-10.85206413269043</v>
       </c>
       <c r="DV2">
-        <v>-0.4366118907928467</v>
+        <v>-0.188384622335434</v>
       </c>
       <c r="DW2">
-        <v>-2.261231899261475</v>
+        <v>-1.411699295043945</v>
       </c>
       <c r="DX2">
-        <v>-0.122021920979023</v>
+        <v>0.2844826579093933</v>
       </c>
       <c r="DY2">
-        <v>7.904624462127686</v>
+        <v>7.173338413238525</v>
       </c>
       <c r="DZ2">
-        <v>-0.1563600450754166</v>
+        <v>0.2668868005275726</v>
       </c>
       <c r="EA2">
-        <v>-6.35106372833252</v>
+        <v>-6.25774621963501</v>
       </c>
       <c r="EB2">
-        <v>0.9662830829620361</v>
+        <v>1.011909604072571</v>
       </c>
       <c r="EC2">
-        <v>-0.20462766289711</v>
+        <v>-1.136084794998169</v>
       </c>
       <c r="ED2">
-        <v>-9.126903533935547</v>
+        <v>-8.469734191894531</v>
       </c>
       <c r="EE2">
-        <v>0.7558354139328003</v>
+        <v>0.1854183226823807</v>
       </c>
       <c r="EF2">
-        <v>11.20010757446289</v>
+        <v>11.90416049957275</v>
       </c>
       <c r="EG2">
-        <v>6.435551166534424</v>
+        <v>6.542280673980713</v>
       </c>
       <c r="EH2">
-        <v>-12.22312355041504</v>
+        <v>-11.52755641937256</v>
       </c>
       <c r="EI2">
-        <v>-5.152094841003418</v>
+        <v>-5.056815147399902</v>
       </c>
       <c r="EJ2">
-        <v>-9.394248962402344</v>
+        <v>-10.4799222946167</v>
       </c>
       <c r="EK2">
-        <v>1.405234336853027</v>
+        <v>2.250466823577881</v>
       </c>
       <c r="EL2">
-        <v>0.1477137356996536</v>
+        <v>-0.4843082129955292</v>
       </c>
       <c r="EM2">
-        <v>10.25315570831299</v>
+        <v>9.484780311584473</v>
       </c>
       <c r="EN2">
-        <v>-9.911298751831055</v>
+        <v>-9.57048511505127</v>
       </c>
       <c r="EO2">
-        <v>0.5336310863494873</v>
+        <v>0.1733079105615616</v>
       </c>
       <c r="EP2">
-        <v>-6.349760055541992</v>
+        <v>-5.365262031555176</v>
       </c>
       <c r="EQ2">
-        <v>-0.4112749695777893</v>
+        <v>0.1704043596982956</v>
       </c>
       <c r="ER2">
-        <v>0.5267285704612732</v>
+        <v>0.05940138176083565</v>
       </c>
       <c r="ES2">
-        <v>8.800835609436035</v>
+        <v>9.084986686706543</v>
       </c>
       <c r="ET2">
-        <v>7.347537517547607</v>
+        <v>6.398170471191406</v>
       </c>
       <c r="EU2">
-        <v>-7.663932323455811</v>
+        <v>-7.629722595214844</v>
       </c>
       <c r="EV2">
-        <v>9.010000228881836</v>
+        <v>8.551170349121094</v>
       </c>
       <c r="EW2">
-        <v>-2.516383647918701</v>
+        <v>-3.387248992919922</v>
       </c>
       <c r="EX2">
-        <v>11.597243309021</v>
+        <v>10.28521251678467</v>
       </c>
       <c r="EY2">
-        <v>-0.07649677246809006</v>
+        <v>0.4251971542835236</v>
       </c>
       <c r="EZ2">
-        <v>1.32469630241394</v>
+        <v>0.8341922760009766</v>
       </c>
       <c r="FA2">
-        <v>-0.2487467229366302</v>
+        <v>-0.388460636138916</v>
       </c>
       <c r="FB2">
-        <v>0.3425565958023071</v>
+        <v>-0.7417267560958862</v>
       </c>
       <c r="FC2">
-        <v>0.06256450712680817</v>
+        <v>0.6079348921775818</v>
       </c>
       <c r="FD2">
-        <v>0.5263429880142212</v>
+        <v>-0.4881105422973633</v>
       </c>
       <c r="FE2">
-        <v>1.843534350395203</v>
+        <v>0.5795484781265259</v>
       </c>
       <c r="FF2">
-        <v>2.554417133331299</v>
+        <v>2.624198198318481</v>
       </c>
       <c r="FG2">
-        <v>-15.55785465240479</v>
+        <v>-14.97087287902832</v>
       </c>
       <c r="FH2">
-        <v>-1.558638691902161</v>
+        <v>-2.013545989990234</v>
       </c>
       <c r="FI2">
-        <v>2.972699642181396</v>
+        <v>2.986884117126465</v>
       </c>
       <c r="FJ2">
-        <v>0.1881904453039169</v>
+        <v>0.08158637583255768</v>
       </c>
       <c r="FK2">
-        <v>-3.83631420135498</v>
+        <v>-3.74993109703064</v>
       </c>
       <c r="FL2">
-        <v>-15.21068286895752</v>
+        <v>-15.32998561859131</v>
       </c>
       <c r="FM2">
-        <v>8.569663047790527</v>
+        <v>9.394119262695312</v>
       </c>
       <c r="FN2">
-        <v>5.22700023651123</v>
+        <v>5.807966232299805</v>
       </c>
       <c r="FO2">
-        <v>-2.746887922286987</v>
+        <v>-2.094884872436523</v>
       </c>
       <c r="FP2">
-        <v>-1.34314501285553</v>
+        <v>-1.204408407211304</v>
       </c>
       <c r="FQ2">
-        <v>1.949727177619934</v>
+        <v>1.597660064697266</v>
       </c>
       <c r="FR2">
-        <v>0.9656474590301514</v>
+        <v>-0.0839577317237854</v>
       </c>
       <c r="FS2">
-        <v>-2.205996513366699</v>
+        <v>-1.581164836883545</v>
       </c>
       <c r="FT2">
-        <v>-1.866440296173096</v>
+        <v>-2.936925411224365</v>
       </c>
       <c r="FU2">
-        <v>-6.147741317749023</v>
+        <v>-5.530499935150146</v>
       </c>
       <c r="FV2">
-        <v>-0.7824445962905884</v>
+        <v>-0.1955131739377975</v>
       </c>
       <c r="FW2">
-        <v>-0.6489511728286743</v>
+        <v>-1.22270941734314</v>
       </c>
       <c r="FX2">
-        <v>-1.165583729743958</v>
+        <v>-0.3240390121936798</v>
       </c>
       <c r="FY2">
-        <v>1.319424986839294</v>
+        <v>0.8455913662910461</v>
       </c>
       <c r="FZ2">
-        <v>-0.2146146893501282</v>
+        <v>0.4593796730041504</v>
       </c>
       <c r="GA2">
-        <v>6.911478042602539</v>
+        <v>6.424415588378906</v>
       </c>
       <c r="GB2">
-        <v>0.5667141079902649</v>
+        <v>-0.5512478947639465</v>
       </c>
       <c r="GC2">
-        <v>0.4706164598464966</v>
+        <v>0.009811925701797009</v>
       </c>
       <c r="GD2">
-        <v>6.126852035522461</v>
+        <v>5.269858360290527</v>
       </c>
       <c r="GE2">
-        <v>-1.651985764503479</v>
+        <v>-2.252465009689331</v>
       </c>
       <c r="GF2">
-        <v>-11.54184532165527</v>
+        <v>-10.58063220977783</v>
       </c>
       <c r="GG2">
-        <v>4.275650501251221</v>
+        <v>4.908018112182617</v>
       </c>
       <c r="GH2">
-        <v>-0.3224683403968811</v>
+        <v>0.4397982060909271</v>
       </c>
       <c r="GI2">
-        <v>1.045872330665588</v>
+        <v>0.7130729556083679</v>
       </c>
       <c r="GJ2">
-        <v>-1.041426539421082</v>
+        <v>-0.8352987170219421</v>
       </c>
       <c r="GK2">
-        <v>-6.109940052032471</v>
+        <v>-5.998710632324219</v>
       </c>
       <c r="GL2">
-        <v>-7.449453830718994</v>
+        <v>-6.951164722442627</v>
       </c>
       <c r="GM2">
-        <v>10.78108501434326</v>
+        <v>10.01081371307373</v>
       </c>
       <c r="GN2">
-        <v>-7.43716287612915</v>
+        <v>-8.16228199005127</v>
       </c>
       <c r="GO2">
-        <v>2.766216278076172</v>
+        <v>3.288968086242676</v>
       </c>
       <c r="GP2">
-        <v>0.7753836512565613</v>
+        <v>1.41128396987915</v>
       </c>
       <c r="GQ2">
-        <v>-1.237907409667969</v>
+        <v>-1.762176394462585</v>
       </c>
       <c r="GR2">
-        <v>2.50248646736145</v>
+        <v>1.829591274261475</v>
       </c>
       <c r="GS2">
-        <v>-2.302404403686523</v>
+        <v>-2.386669158935547</v>
       </c>
       <c r="GT2">
-        <v>-1.949543237686157</v>
+        <v>-1.308020949363708</v>
       </c>
       <c r="GU2">
-        <v>-3.208405733108521</v>
+        <v>-3.580206155776978</v>
       </c>
       <c r="GV2">
-        <v>-0.4268587231636047</v>
+        <v>-1.305903196334839</v>
       </c>
       <c r="GW2">
-        <v>-2.340538263320923</v>
+        <v>-1.796638607978821</v>
       </c>
       <c r="GX2">
-        <v>0.2409794330596924</v>
+        <v>-0.2465669363737106</v>
       </c>
       <c r="GY2">
-        <v>-0.5657769441604614</v>
+        <v>-0.1318758875131607</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>5.197350025177002</v>
+        <v>5.270558834075928</v>
       </c>
       <c r="C2">
-        <v>5.402363777160645</v>
+        <v>4.498983383178711</v>
       </c>
       <c r="D2">
-        <v>-0.2985483407974243</v>
+        <v>-0.7611642479896545</v>
       </c>
       <c r="E2">
-        <v>3.642739057540894</v>
+        <v>3.267211675643921</v>
       </c>
       <c r="F2">
-        <v>0.5356053113937378</v>
+        <v>0.887808620929718</v>
       </c>
       <c r="G2">
-        <v>7.34958028793335</v>
+        <v>7.802425861358643</v>
       </c>
       <c r="H2">
-        <v>-0.1403519809246063</v>
+        <v>0.1864951252937317</v>
       </c>
       <c r="I2">
-        <v>2.062853574752808</v>
+        <v>1.116092801094055</v>
       </c>
       <c r="J2">
-        <v>0.3160881996154785</v>
+        <v>-0.3408619463443756</v>
       </c>
       <c r="K2">
-        <v>-0.05837374925613403</v>
+        <v>-0.1524435728788376</v>
       </c>
       <c r="L2">
-        <v>0.4738812148571014</v>
+        <v>-0.1833394169807434</v>
       </c>
       <c r="M2">
-        <v>-0.6585984826087952</v>
+        <v>-1.04780912399292</v>
       </c>
       <c r="N2">
-        <v>0.7227603197097778</v>
+        <v>1.322288274765015</v>
       </c>
       <c r="O2">
-        <v>-7.184821605682373</v>
+        <v>-6.732480049133301</v>
       </c>
       <c r="P2">
-        <v>12.7729320526123</v>
+        <v>12.03847503662109</v>
       </c>
       <c r="Q2">
-        <v>0.35405632853508</v>
+        <v>1.307265162467957</v>
       </c>
       <c r="R2">
-        <v>0.5760982036590576</v>
+        <v>-0.668613612651825</v>
       </c>
       <c r="S2">
-        <v>-8.926457405090332</v>
+        <v>-9.830381393432617</v>
       </c>
       <c r="T2">
-        <v>-4.527777671813965</v>
+        <v>-4.903314590454102</v>
       </c>
       <c r="U2">
-        <v>-0.1731189340353012</v>
+        <v>-0.4615596234798431</v>
       </c>
       <c r="V2">
-        <v>0.4781391322612762</v>
+        <v>0.8725191354751587</v>
       </c>
       <c r="W2">
-        <v>0.8716406226158142</v>
+        <v>1.304016947746277</v>
       </c>
       <c r="X2">
-        <v>-1.445695281028748</v>
+        <v>-1.004529118537903</v>
       </c>
       <c r="Y2">
-        <v>-2.926834583282471</v>
+        <v>-4.160873889923096</v>
       </c>
       <c r="Z2">
-        <v>2.207877397537231</v>
+        <v>1.60039484500885</v>
       </c>
       <c r="AA2">
-        <v>-1.903179407119751</v>
+        <v>-1.16351330280304</v>
       </c>
       <c r="AB2">
-        <v>-3.44116473197937</v>
+        <v>-2.477852344512939</v>
       </c>
       <c r="AC2">
-        <v>-8.19062328338623</v>
+        <v>-8.497063636779785</v>
       </c>
       <c r="AD2">
-        <v>0.8071146607398987</v>
+        <v>0.6051609516143799</v>
       </c>
       <c r="AE2">
-        <v>10.03743362426758</v>
+        <v>10.98639011383057</v>
       </c>
       <c r="AF2">
-        <v>1.625801205635071</v>
+        <v>1.836393475532532</v>
       </c>
       <c r="AG2">
-        <v>-17.55303573608398</v>
+        <v>-18.55146026611328</v>
       </c>
       <c r="AH2">
-        <v>-12.24478626251221</v>
+        <v>-12.14972877502441</v>
       </c>
       <c r="AI2">
-        <v>6.593719959259033</v>
+        <v>5.224159240722656</v>
       </c>
       <c r="AJ2">
-        <v>-1.09757125377655</v>
+        <v>-0.2050448507070541</v>
       </c>
       <c r="AK2">
-        <v>-1.36684262752533</v>
+        <v>-0.7166180610656738</v>
       </c>
       <c r="AL2">
-        <v>2.04464316368103</v>
+        <v>1.689970374107361</v>
       </c>
       <c r="AM2">
-        <v>-1.454870581626892</v>
+        <v>-1.104140877723694</v>
       </c>
       <c r="AN2">
-        <v>8.203741073608398</v>
+        <v>8.144021034240723</v>
       </c>
       <c r="AO2">
-        <v>7.481372833251953</v>
+        <v>8.03327465057373</v>
       </c>
       <c r="AP2">
-        <v>1.313327193260193</v>
+        <v>1.132536888122559</v>
       </c>
       <c r="AQ2">
-        <v>0.737349808216095</v>
+        <v>0.8037005662918091</v>
       </c>
       <c r="AR2">
-        <v>-12.17894649505615</v>
+        <v>-11.80675888061523</v>
       </c>
       <c r="AS2">
-        <v>7.005970478057861</v>
+        <v>6.651362419128418</v>
       </c>
       <c r="AT2">
-        <v>-1.053947687149048</v>
+        <v>-2.034857511520386</v>
       </c>
       <c r="AU2">
-        <v>-8.528359413146973</v>
+        <v>-7.902755737304688</v>
       </c>
       <c r="AV2">
-        <v>-1.017090797424316</v>
+        <v>-0.6374722719192505</v>
       </c>
       <c r="AW2">
-        <v>-4.212361335754395</v>
+        <v>-3.422679424285889</v>
       </c>
       <c r="AX2">
-        <v>5.157546043395996</v>
+        <v>6.122342109680176</v>
       </c>
       <c r="AY2">
-        <v>1.294428706169128</v>
+        <v>1.15778124332428</v>
       </c>
       <c r="AZ2">
-        <v>15.8335132598877</v>
+        <v>14.41428565979004</v>
       </c>
       <c r="BA2">
-        <v>-2.340118408203125</v>
+        <v>-2.50474214553833</v>
       </c>
       <c r="BB2">
-        <v>0.8322262763977051</v>
+        <v>2.040313959121704</v>
       </c>
       <c r="BC2">
-        <v>-1.870570540428162</v>
+        <v>-1.044312953948975</v>
       </c>
       <c r="BD2">
-        <v>1.163674592971802</v>
+        <v>0.9260900616645813</v>
       </c>
       <c r="BE2">
-        <v>-1.218195796012878</v>
+        <v>-2.253468751907349</v>
       </c>
       <c r="BF2">
-        <v>2.253861904144287</v>
+        <v>3.572778940200806</v>
       </c>
       <c r="BG2">
-        <v>0.1054539456963539</v>
+        <v>-0.6315702795982361</v>
       </c>
       <c r="BH2">
-        <v>-0.2814184129238129</v>
+        <v>0.6152186989784241</v>
       </c>
       <c r="BI2">
-        <v>0.5361484289169312</v>
+        <v>-0.04119056463241577</v>
       </c>
       <c r="BJ2">
-        <v>5.378032207489014</v>
+        <v>3.968199253082275</v>
       </c>
       <c r="BK2">
-        <v>-0.6488617658615112</v>
+        <v>-0.8885726928710938</v>
       </c>
       <c r="BL2">
-        <v>1.050559401512146</v>
+        <v>1.394327282905579</v>
       </c>
       <c r="BM2">
-        <v>-0.7793347835540771</v>
+        <v>-1.422160625457764</v>
       </c>
       <c r="BN2">
-        <v>-7.845675468444824</v>
+        <v>-8.15065860748291</v>
       </c>
       <c r="BO2">
-        <v>-13.22616481781006</v>
+        <v>-12.54773807525635</v>
       </c>
       <c r="BP2">
-        <v>-2.691433668136597</v>
+        <v>-2.851203441619873</v>
       </c>
       <c r="BQ2">
-        <v>0.02734298445284367</v>
+        <v>0.6243659853935242</v>
       </c>
       <c r="BR2">
-        <v>0.07670880109071732</v>
+        <v>0.1471418440341949</v>
       </c>
       <c r="BS2">
-        <v>-0.1110810339450836</v>
+        <v>0.2801198661327362</v>
       </c>
       <c r="BT2">
-        <v>0.7956709265708923</v>
+        <v>1.434670686721802</v>
       </c>
       <c r="BU2">
-        <v>0.6916828751564026</v>
+        <v>0.3953154683113098</v>
       </c>
       <c r="BV2">
-        <v>-12.19068145751953</v>
+        <v>-11.70907115936279</v>
       </c>
       <c r="BW2">
-        <v>0.649927020072937</v>
+        <v>0.6063364148139954</v>
       </c>
       <c r="BX2">
-        <v>5.820737838745117</v>
+        <v>5.167036533355713</v>
       </c>
       <c r="BY2">
-        <v>0.7117476463317871</v>
+        <v>1.859999775886536</v>
       </c>
       <c r="BZ2">
-        <v>-0.4104751646518707</v>
+        <v>-1.056714534759521</v>
       </c>
       <c r="CA2">
-        <v>5.853409767150879</v>
+        <v>6.57312536239624</v>
       </c>
       <c r="CB2">
-        <v>-1.347455501556396</v>
+        <v>-1.260274052619934</v>
       </c>
       <c r="CC2">
-        <v>1.952802658081055</v>
+        <v>1.162143230438232</v>
       </c>
       <c r="CD2">
-        <v>1.500953316688538</v>
+        <v>0.8596842885017395</v>
       </c>
       <c r="CE2">
-        <v>-4.4168381690979</v>
+        <v>-3.708446741104126</v>
       </c>
       <c r="CF2">
-        <v>-1.475733995437622</v>
+        <v>-2.141393661499023</v>
       </c>
       <c r="CG2">
-        <v>-0.2582946419715881</v>
+        <v>0.9581935405731201</v>
       </c>
       <c r="CH2">
-        <v>3.235831022262573</v>
+        <v>2.330171346664429</v>
       </c>
       <c r="CI2">
-        <v>-0.4334268569946289</v>
+        <v>-0.2374420911073685</v>
       </c>
       <c r="CJ2">
-        <v>-13.67593383789062</v>
+        <v>-14.02489471435547</v>
       </c>
       <c r="CK2">
-        <v>0.4662584364414215</v>
+        <v>0.5299320220947266</v>
       </c>
       <c r="CL2">
-        <v>-2.048622131347656</v>
+        <v>-2.604532957077026</v>
       </c>
       <c r="CM2">
-        <v>8.310378074645996</v>
+        <v>7.753430843353271</v>
       </c>
       <c r="CN2">
-        <v>-2.400884866714478</v>
+        <v>-1.489559412002563</v>
       </c>
       <c r="CO2">
-        <v>0.2011439055204391</v>
+        <v>0.6709631681442261</v>
       </c>
       <c r="CP2">
-        <v>5.777655601501465</v>
+        <v>6.810930252075195</v>
       </c>
       <c r="CQ2">
-        <v>7.660449028015137</v>
+        <v>7.966639995574951</v>
       </c>
       <c r="CR2">
-        <v>-2.225926637649536</v>
+        <v>-2.253760576248169</v>
       </c>
       <c r="CS2">
-        <v>0.07728927582502365</v>
+        <v>0.5530299544334412</v>
       </c>
       <c r="CT2">
-        <v>-0.995658814907074</v>
+        <v>-1.778969287872314</v>
       </c>
       <c r="CU2">
-        <v>1.108274579048157</v>
+        <v>1.44031810760498</v>
       </c>
       <c r="CV2">
-        <v>-0.9795756936073303</v>
+        <v>-0.4225974380970001</v>
       </c>
       <c r="CW2">
-        <v>-1.858916759490967</v>
+        <v>-2.827749729156494</v>
       </c>
       <c r="CX2">
-        <v>0.3607054352760315</v>
+        <v>0.1030554324388504</v>
       </c>
       <c r="CY2">
-        <v>-4.359256267547607</v>
+        <v>-3.59661078453064</v>
       </c>
       <c r="CZ2">
-        <v>-0.5851970911026001</v>
+        <v>0.1559625566005707</v>
       </c>
       <c r="DA2">
-        <v>-12.63682174682617</v>
+        <v>-11.9035120010376</v>
       </c>
       <c r="DB2">
-        <v>0.6969353556632996</v>
+        <v>0.002533103106543422</v>
       </c>
       <c r="DC2">
-        <v>1.790718197822571</v>
+        <v>2.592116594314575</v>
       </c>
       <c r="DD2">
-        <v>-9.661716461181641</v>
+        <v>-10.33035278320312</v>
       </c>
       <c r="DE2">
-        <v>-2.070027589797974</v>
+        <v>-1.552665829658508</v>
       </c>
       <c r="DF2">
-        <v>9.199907302856445</v>
+        <v>8.760842323303223</v>
       </c>
       <c r="DG2">
-        <v>-0.04201537743210793</v>
+        <v>-0.6104364395141602</v>
       </c>
       <c r="DH2">
-        <v>7.733939647674561</v>
+        <v>6.949058055877686</v>
       </c>
       <c r="DI2">
-        <v>-0.03350955620408058</v>
+        <v>-0.2911204695701599</v>
       </c>
       <c r="DJ2">
-        <v>-9.359619140625</v>
+        <v>-9.901331901550293</v>
       </c>
       <c r="DK2">
-        <v>7.143924713134766</v>
+        <v>6.943858623504639</v>
       </c>
       <c r="DL2">
-        <v>-0.2635137736797333</v>
+        <v>0.8161250948905945</v>
       </c>
       <c r="DM2">
-        <v>-5.428637981414795</v>
+        <v>-5.163204669952393</v>
       </c>
       <c r="DN2">
-        <v>-0.0966012105345726</v>
+        <v>-0.8137465119361877</v>
       </c>
       <c r="DO2">
-        <v>-3.199776887893677</v>
+        <v>-3.805567502975464</v>
       </c>
       <c r="DP2">
-        <v>-2.840302228927612</v>
+        <v>-2.454771995544434</v>
       </c>
       <c r="DQ2">
-        <v>-0.5287496447563171</v>
+        <v>-0.05390600115060806</v>
       </c>
       <c r="DR2">
-        <v>2.043413639068604</v>
+        <v>1.18513560295105</v>
       </c>
       <c r="DS2">
-        <v>1.519859552383423</v>
+        <v>0.390797346830368</v>
       </c>
       <c r="DT2">
-        <v>6.171539306640625</v>
+        <v>6.407834053039551</v>
       </c>
       <c r="DU2">
-        <v>-10.85206413269043</v>
+        <v>-9.537158012390137</v>
       </c>
       <c r="DV2">
-        <v>-0.188384622335434</v>
+        <v>0.6951042413711548</v>
       </c>
       <c r="DW2">
-        <v>-1.411699295043945</v>
+        <v>-0.6208381056785583</v>
       </c>
       <c r="DX2">
-        <v>0.2844826579093933</v>
+        <v>-0.1064070612192154</v>
       </c>
       <c r="DY2">
-        <v>7.173338413238525</v>
+        <v>6.745687484741211</v>
       </c>
       <c r="DZ2">
-        <v>0.2668868005275726</v>
+        <v>-0.7303969264030457</v>
       </c>
       <c r="EA2">
-        <v>-6.25774621963501</v>
+        <v>-7.09464693069458</v>
       </c>
       <c r="EB2">
-        <v>1.011909604072571</v>
+        <v>0.9183621406555176</v>
       </c>
       <c r="EC2">
-        <v>-1.136084794998169</v>
+        <v>-0.2068047970533371</v>
       </c>
       <c r="ED2">
-        <v>-8.469734191894531</v>
+        <v>-9.384844779968262</v>
       </c>
       <c r="EE2">
-        <v>0.1854183226823807</v>
+        <v>0.4994120895862579</v>
       </c>
       <c r="EF2">
-        <v>11.90416049957275</v>
+        <v>12.88973426818848</v>
       </c>
       <c r="EG2">
-        <v>6.542280673980713</v>
+        <v>7.20458984375</v>
       </c>
       <c r="EH2">
-        <v>-11.52755641937256</v>
+        <v>-11.73813152313232</v>
       </c>
       <c r="EI2">
-        <v>-5.056815147399902</v>
+        <v>-5.669567108154297</v>
       </c>
       <c r="EJ2">
-        <v>-10.4799222946167</v>
+        <v>-11.05250453948975</v>
       </c>
       <c r="EK2">
-        <v>2.250466823577881</v>
+        <v>1.660839676856995</v>
       </c>
       <c r="EL2">
-        <v>-0.4843082129955292</v>
+        <v>-0.5389252901077271</v>
       </c>
       <c r="EM2">
-        <v>9.484780311584473</v>
+        <v>8.948758125305176</v>
       </c>
       <c r="EN2">
-        <v>-9.57048511505127</v>
+        <v>-9.171302795410156</v>
       </c>
       <c r="EO2">
-        <v>0.1733079105615616</v>
+        <v>1.370431661605835</v>
       </c>
       <c r="EP2">
-        <v>-5.365262031555176</v>
+        <v>-4.344726085662842</v>
       </c>
       <c r="EQ2">
-        <v>0.1704043596982956</v>
+        <v>-1.001748561859131</v>
       </c>
       <c r="ER2">
-        <v>0.05940138176083565</v>
+        <v>-0.5115275382995605</v>
       </c>
       <c r="ES2">
-        <v>9.084986686706543</v>
+        <v>8.550271987915039</v>
       </c>
       <c r="ET2">
-        <v>6.398170471191406</v>
+        <v>5.553243160247803</v>
       </c>
       <c r="EU2">
-        <v>-7.629722595214844</v>
+        <v>-8.67853832244873</v>
       </c>
       <c r="EV2">
-        <v>8.551170349121094</v>
+        <v>8.376269340515137</v>
       </c>
       <c r="EW2">
-        <v>-3.387248992919922</v>
+        <v>-4.197516918182373</v>
       </c>
       <c r="EX2">
-        <v>10.28521251678467</v>
+        <v>10.33240509033203</v>
       </c>
       <c r="EY2">
-        <v>0.4251971542835236</v>
+        <v>0.4735961854457855</v>
       </c>
       <c r="EZ2">
-        <v>0.8341922760009766</v>
+        <v>-0.01482422556728125</v>
       </c>
       <c r="FA2">
-        <v>-0.388460636138916</v>
+        <v>-1.299378633499146</v>
       </c>
       <c r="FB2">
-        <v>-0.7417267560958862</v>
+        <v>-0.1534768491983414</v>
       </c>
       <c r="FC2">
-        <v>0.6079348921775818</v>
+        <v>1.649072289466858</v>
       </c>
       <c r="FD2">
-        <v>-0.4881105422973633</v>
+        <v>0.2492706030607224</v>
       </c>
       <c r="FE2">
-        <v>0.5795484781265259</v>
+        <v>-0.6018878817558289</v>
       </c>
       <c r="FF2">
-        <v>2.624198198318481</v>
+        <v>1.945623874664307</v>
       </c>
       <c r="FG2">
-        <v>-14.97087287902832</v>
+        <v>-15.73849391937256</v>
       </c>
       <c r="FH2">
-        <v>-2.013545989990234</v>
+        <v>-1.404632687568665</v>
       </c>
       <c r="FI2">
-        <v>2.986884117126465</v>
+        <v>1.772661566734314</v>
       </c>
       <c r="FJ2">
-        <v>0.08158637583255768</v>
+        <v>-0.1953068673610687</v>
       </c>
       <c r="FK2">
-        <v>-3.74993109703064</v>
+        <v>-3.022917747497559</v>
       </c>
       <c r="FL2">
-        <v>-15.32998561859131</v>
+        <v>-14.7163724899292</v>
       </c>
       <c r="FM2">
-        <v>9.394119262695312</v>
+        <v>10.06039333343506</v>
       </c>
       <c r="FN2">
-        <v>5.807966232299805</v>
+        <v>6.009839534759521</v>
       </c>
       <c r="FO2">
-        <v>-2.094884872436523</v>
+        <v>-1.47803521156311</v>
       </c>
       <c r="FP2">
-        <v>-1.204408407211304</v>
+        <v>-0.9923926591873169</v>
       </c>
       <c r="FQ2">
-        <v>1.597660064697266</v>
+        <v>1.507393002510071</v>
       </c>
       <c r="FR2">
-        <v>-0.0839577317237854</v>
+        <v>0.2722918391227722</v>
       </c>
       <c r="FS2">
-        <v>-1.581164836883545</v>
+        <v>-2.257923126220703</v>
       </c>
       <c r="FT2">
-        <v>-2.936925411224365</v>
+        <v>-2.120733261108398</v>
       </c>
       <c r="FU2">
-        <v>-5.530499935150146</v>
+        <v>-6.362468719482422</v>
       </c>
       <c r="FV2">
-        <v>-0.1955131739377975</v>
+        <v>-0.3618485331535339</v>
       </c>
       <c r="FW2">
-        <v>-1.22270941734314</v>
+        <v>-1.388638019561768</v>
       </c>
       <c r="FX2">
-        <v>-0.3240390121936798</v>
+        <v>0.1380259841680527</v>
       </c>
       <c r="FY2">
-        <v>0.8455913662910461</v>
+        <v>0.2717108726501465</v>
       </c>
       <c r="FZ2">
-        <v>0.4593796730041504</v>
+        <v>0.199085995554924</v>
       </c>
       <c r="GA2">
-        <v>6.424415588378906</v>
+        <v>5.394464492797852</v>
       </c>
       <c r="GB2">
-        <v>-0.5512478947639465</v>
+        <v>-0.4888051152229309</v>
       </c>
       <c r="GC2">
-        <v>0.009811925701797009</v>
+        <v>-1.258249759674072</v>
       </c>
       <c r="GD2">
-        <v>5.269858360290527</v>
+        <v>5.84930419921875</v>
       </c>
       <c r="GE2">
-        <v>-2.252465009689331</v>
+        <v>-2.265092134475708</v>
       </c>
       <c r="GF2">
-        <v>-10.58063220977783</v>
+        <v>-10.62985229492188</v>
       </c>
       <c r="GG2">
-        <v>4.908018112182617</v>
+        <v>4.391307830810547</v>
       </c>
       <c r="GH2">
-        <v>0.4397982060909271</v>
+        <v>0.1737763285636902</v>
       </c>
       <c r="GI2">
-        <v>0.7130729556083679</v>
+        <v>1.83592689037323</v>
       </c>
       <c r="GJ2">
-        <v>-0.8352987170219421</v>
+        <v>-0.9939705729484558</v>
       </c>
       <c r="GK2">
-        <v>-5.998710632324219</v>
+        <v>-6.99907922744751</v>
       </c>
       <c r="GL2">
-        <v>-6.951164722442627</v>
+        <v>-6.035097122192383</v>
       </c>
       <c r="GM2">
-        <v>10.01081371307373</v>
+        <v>9.893215179443359</v>
       </c>
       <c r="GN2">
-        <v>-8.16228199005127</v>
+        <v>-9.520613670349121</v>
       </c>
       <c r="GO2">
-        <v>3.288968086242676</v>
+        <v>3.792006015777588</v>
       </c>
       <c r="GP2">
-        <v>1.41128396987915</v>
+        <v>0.725462019443512</v>
       </c>
       <c r="GQ2">
-        <v>-1.762176394462585</v>
+        <v>-0.8377336859703064</v>
       </c>
       <c r="GR2">
-        <v>1.829591274261475</v>
+        <v>1.506215572357178</v>
       </c>
       <c r="GS2">
-        <v>-2.386669158935547</v>
+        <v>-1.450635671615601</v>
       </c>
       <c r="GT2">
-        <v>-1.308020949363708</v>
+        <v>-2.381552219390869</v>
       </c>
       <c r="GU2">
-        <v>-3.580206155776978</v>
+        <v>-2.716151237487793</v>
       </c>
       <c r="GV2">
-        <v>-1.305903196334839</v>
+        <v>-1.314300179481506</v>
       </c>
       <c r="GW2">
-        <v>-1.796638607978821</v>
+        <v>-0.8321523666381836</v>
       </c>
       <c r="GX2">
-        <v>-0.2465669363737106</v>
+        <v>-1.173674941062927</v>
       </c>
       <c r="GY2">
-        <v>-0.1318758875131607</v>
+        <v>-0.5883693695068359</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>5.270558834075928</v>
+        <v>4.942791938781738</v>
       </c>
       <c r="C2">
-        <v>4.498983383178711</v>
+        <v>2.917023658752441</v>
       </c>
       <c r="D2">
-        <v>-0.7611642479896545</v>
+        <v>0.2789159715175629</v>
       </c>
       <c r="E2">
-        <v>3.267211675643921</v>
+        <v>3.448777914047241</v>
       </c>
       <c r="F2">
-        <v>0.887808620929718</v>
+        <v>0.3415177762508392</v>
       </c>
       <c r="G2">
-        <v>7.802425861358643</v>
+        <v>9.008747100830078</v>
       </c>
       <c r="H2">
-        <v>0.1864951252937317</v>
+        <v>0.423743724822998</v>
       </c>
       <c r="I2">
-        <v>1.116092801094055</v>
+        <v>0.9300826191902161</v>
       </c>
       <c r="J2">
-        <v>-0.3408619463443756</v>
+        <v>-0.2744851410388947</v>
       </c>
       <c r="K2">
-        <v>-0.1524435728788376</v>
+        <v>0.2024136334657669</v>
       </c>
       <c r="L2">
-        <v>-0.1833394169807434</v>
+        <v>-2.216446161270142</v>
       </c>
       <c r="M2">
-        <v>-1.04780912399292</v>
+        <v>-0.572216808795929</v>
       </c>
       <c r="N2">
-        <v>1.322288274765015</v>
+        <v>0.2247753888368607</v>
       </c>
       <c r="O2">
-        <v>-6.732480049133301</v>
+        <v>-6.279577255249023</v>
       </c>
       <c r="P2">
-        <v>12.03847503662109</v>
+        <v>11.64951801300049</v>
       </c>
       <c r="Q2">
-        <v>1.307265162467957</v>
+        <v>1.77703869342804</v>
       </c>
       <c r="R2">
-        <v>-0.668613612651825</v>
+        <v>-0.2165964096784592</v>
       </c>
       <c r="S2">
-        <v>-9.830381393432617</v>
+        <v>-10.33894729614258</v>
       </c>
       <c r="T2">
-        <v>-4.903314590454102</v>
+        <v>-3.678178787231445</v>
       </c>
       <c r="U2">
-        <v>-0.4615596234798431</v>
+        <v>-1.113803386688232</v>
       </c>
       <c r="V2">
-        <v>0.8725191354751587</v>
+        <v>-0.2695140540599823</v>
       </c>
       <c r="W2">
-        <v>1.304016947746277</v>
+        <v>3.566083669662476</v>
       </c>
       <c r="X2">
-        <v>-1.004529118537903</v>
+        <v>-0.5391619801521301</v>
       </c>
       <c r="Y2">
-        <v>-4.160873889923096</v>
+        <v>-4.058768749237061</v>
       </c>
       <c r="Z2">
-        <v>1.60039484500885</v>
+        <v>1.384984731674194</v>
       </c>
       <c r="AA2">
-        <v>-1.16351330280304</v>
+        <v>-1.071500778198242</v>
       </c>
       <c r="AB2">
-        <v>-2.477852344512939</v>
+        <v>-2.495862483978271</v>
       </c>
       <c r="AC2">
-        <v>-8.497063636779785</v>
+        <v>-8.724332809448242</v>
       </c>
       <c r="AD2">
-        <v>0.6051609516143799</v>
+        <v>1.35558009147644</v>
       </c>
       <c r="AE2">
-        <v>10.98639011383057</v>
+        <v>10.01349258422852</v>
       </c>
       <c r="AF2">
-        <v>1.836393475532532</v>
+        <v>1.828891396522522</v>
       </c>
       <c r="AG2">
-        <v>-18.55146026611328</v>
+        <v>-19.7159423828125</v>
       </c>
       <c r="AH2">
-        <v>-12.14972877502441</v>
+        <v>-12.14030361175537</v>
       </c>
       <c r="AI2">
-        <v>5.224159240722656</v>
+        <v>4.948811531066895</v>
       </c>
       <c r="AJ2">
-        <v>-0.2050448507070541</v>
+        <v>-1.015727043151855</v>
       </c>
       <c r="AK2">
-        <v>-0.7166180610656738</v>
+        <v>-1.049649000167847</v>
       </c>
       <c r="AL2">
-        <v>1.689970374107361</v>
+        <v>0.6839167475700378</v>
       </c>
       <c r="AM2">
-        <v>-1.104140877723694</v>
+        <v>-1.608346581459045</v>
       </c>
       <c r="AN2">
-        <v>8.144021034240723</v>
+        <v>6.901806354522705</v>
       </c>
       <c r="AO2">
-        <v>8.03327465057373</v>
+        <v>8.420668601989746</v>
       </c>
       <c r="AP2">
-        <v>1.132536888122559</v>
+        <v>2.768414497375488</v>
       </c>
       <c r="AQ2">
-        <v>0.8037005662918091</v>
+        <v>0.7107125520706177</v>
       </c>
       <c r="AR2">
-        <v>-11.80675888061523</v>
+        <v>-10.08483982086182</v>
       </c>
       <c r="AS2">
-        <v>6.651362419128418</v>
+        <v>4.979784488677979</v>
       </c>
       <c r="AT2">
-        <v>-2.034857511520386</v>
+        <v>-2.400417327880859</v>
       </c>
       <c r="AU2">
-        <v>-7.902755737304688</v>
+        <v>-7.829621315002441</v>
       </c>
       <c r="AV2">
-        <v>-0.6374722719192505</v>
+        <v>-0.232274204492569</v>
       </c>
       <c r="AW2">
-        <v>-3.422679424285889</v>
+        <v>-4.103608131408691</v>
       </c>
       <c r="AX2">
-        <v>6.122342109680176</v>
+        <v>5.320982456207275</v>
       </c>
       <c r="AY2">
-        <v>1.15778124332428</v>
+        <v>1.74752676486969</v>
       </c>
       <c r="AZ2">
-        <v>14.41428565979004</v>
+        <v>13.40793323516846</v>
       </c>
       <c r="BA2">
-        <v>-2.50474214553833</v>
+        <v>-2.823564529418945</v>
       </c>
       <c r="BB2">
-        <v>2.040313959121704</v>
+        <v>2.642779350280762</v>
       </c>
       <c r="BC2">
-        <v>-1.044312953948975</v>
+        <v>0.7667536735534668</v>
       </c>
       <c r="BD2">
-        <v>0.9260900616645813</v>
+        <v>1.558641076087952</v>
       </c>
       <c r="BE2">
-        <v>-2.253468751907349</v>
+        <v>-1.73507034778595</v>
       </c>
       <c r="BF2">
-        <v>3.572778940200806</v>
+        <v>4.25593090057373</v>
       </c>
       <c r="BG2">
-        <v>-0.6315702795982361</v>
+        <v>0.2047582119703293</v>
       </c>
       <c r="BH2">
-        <v>0.6152186989784241</v>
+        <v>0.5724767446517944</v>
       </c>
       <c r="BI2">
-        <v>-0.04119056463241577</v>
+        <v>1.153282880783081</v>
       </c>
       <c r="BJ2">
-        <v>3.968199253082275</v>
+        <v>3.185764312744141</v>
       </c>
       <c r="BK2">
-        <v>-0.8885726928710938</v>
+        <v>-2.866887807846069</v>
       </c>
       <c r="BL2">
-        <v>1.394327282905579</v>
+        <v>0.5764686465263367</v>
       </c>
       <c r="BM2">
-        <v>-1.422160625457764</v>
+        <v>0.06027869135141373</v>
       </c>
       <c r="BN2">
-        <v>-8.15065860748291</v>
+        <v>-5.531777381896973</v>
       </c>
       <c r="BO2">
-        <v>-12.54773807525635</v>
+        <v>-11.51308822631836</v>
       </c>
       <c r="BP2">
-        <v>-2.851203441619873</v>
+        <v>-1.539258360862732</v>
       </c>
       <c r="BQ2">
-        <v>0.6243659853935242</v>
+        <v>1.301183342933655</v>
       </c>
       <c r="BR2">
-        <v>0.1471418440341949</v>
+        <v>0.08049694448709488</v>
       </c>
       <c r="BS2">
-        <v>0.2801198661327362</v>
+        <v>0.6724762916564941</v>
       </c>
       <c r="BT2">
-        <v>1.434670686721802</v>
+        <v>1.393987894058228</v>
       </c>
       <c r="BU2">
-        <v>0.3953154683113098</v>
+        <v>0.5001259446144104</v>
       </c>
       <c r="BV2">
-        <v>-11.70907115936279</v>
+        <v>-10.65396499633789</v>
       </c>
       <c r="BW2">
-        <v>0.6063364148139954</v>
+        <v>1.055085182189941</v>
       </c>
       <c r="BX2">
-        <v>5.167036533355713</v>
+        <v>4.520286560058594</v>
       </c>
       <c r="BY2">
-        <v>1.859999775886536</v>
+        <v>1.566489338874817</v>
       </c>
       <c r="BZ2">
-        <v>-1.056714534759521</v>
+        <v>-0.707358717918396</v>
       </c>
       <c r="CA2">
-        <v>6.57312536239624</v>
+        <v>6.163801670074463</v>
       </c>
       <c r="CB2">
-        <v>-1.260274052619934</v>
+        <v>-0.8579442501068115</v>
       </c>
       <c r="CC2">
-        <v>1.162143230438232</v>
+        <v>1.870191693305969</v>
       </c>
       <c r="CD2">
-        <v>0.8596842885017395</v>
+        <v>0.609518826007843</v>
       </c>
       <c r="CE2">
-        <v>-3.708446741104126</v>
+        <v>-3.224384307861328</v>
       </c>
       <c r="CF2">
-        <v>-2.141393661499023</v>
+        <v>-3.026402235031128</v>
       </c>
       <c r="CG2">
-        <v>0.9581935405731201</v>
+        <v>1.178908348083496</v>
       </c>
       <c r="CH2">
-        <v>2.330171346664429</v>
+        <v>1.446412086486816</v>
       </c>
       <c r="CI2">
-        <v>-0.2374420911073685</v>
+        <v>0.7036363482475281</v>
       </c>
       <c r="CJ2">
-        <v>-14.02489471435547</v>
+        <v>-12.99229526519775</v>
       </c>
       <c r="CK2">
-        <v>0.5299320220947266</v>
+        <v>0.4208306670188904</v>
       </c>
       <c r="CL2">
-        <v>-2.604532957077026</v>
+        <v>-2.943830966949463</v>
       </c>
       <c r="CM2">
-        <v>7.753430843353271</v>
+        <v>7.334529876708984</v>
       </c>
       <c r="CN2">
-        <v>-1.489559412002563</v>
+        <v>-2.585243225097656</v>
       </c>
       <c r="CO2">
-        <v>0.6709631681442261</v>
+        <v>0.1229648664593697</v>
       </c>
       <c r="CP2">
-        <v>6.810930252075195</v>
+        <v>8.592440605163574</v>
       </c>
       <c r="CQ2">
-        <v>7.966639995574951</v>
+        <v>7.172279834747314</v>
       </c>
       <c r="CR2">
-        <v>-2.253760576248169</v>
+        <v>-1.042116522789001</v>
       </c>
       <c r="CS2">
-        <v>0.5530299544334412</v>
+        <v>1.282254815101624</v>
       </c>
       <c r="CT2">
-        <v>-1.778969287872314</v>
+        <v>-1.255891442298889</v>
       </c>
       <c r="CU2">
-        <v>1.44031810760498</v>
+        <v>0.3502571284770966</v>
       </c>
       <c r="CV2">
-        <v>-0.4225974380970001</v>
+        <v>1.120647072792053</v>
       </c>
       <c r="CW2">
-        <v>-2.827749729156494</v>
+        <v>-2.655399084091187</v>
       </c>
       <c r="CX2">
-        <v>0.1030554324388504</v>
+        <v>-0.1438729017972946</v>
       </c>
       <c r="CY2">
-        <v>-3.59661078453064</v>
+        <v>-4.173760890960693</v>
       </c>
       <c r="CZ2">
-        <v>0.1559625566005707</v>
+        <v>-0.09667420387268066</v>
       </c>
       <c r="DA2">
-        <v>-11.9035120010376</v>
+        <v>-10.11587238311768</v>
       </c>
       <c r="DB2">
-        <v>0.002533103106543422</v>
+        <v>-0.1790580153465271</v>
       </c>
       <c r="DC2">
-        <v>2.592116594314575</v>
+        <v>3.039019107818604</v>
       </c>
       <c r="DD2">
-        <v>-10.33035278320312</v>
+        <v>-11.76990795135498</v>
       </c>
       <c r="DE2">
-        <v>-1.552665829658508</v>
+        <v>-0.7046031355857849</v>
       </c>
       <c r="DF2">
-        <v>8.760842323303223</v>
+        <v>7.156520366668701</v>
       </c>
       <c r="DG2">
-        <v>-0.6104364395141602</v>
+        <v>0.9920132756233215</v>
       </c>
       <c r="DH2">
-        <v>6.949058055877686</v>
+        <v>6.895725727081299</v>
       </c>
       <c r="DI2">
-        <v>-0.2911204695701599</v>
+        <v>0.4771813452243805</v>
       </c>
       <c r="DJ2">
-        <v>-9.901331901550293</v>
+        <v>-9.013195037841797</v>
       </c>
       <c r="DK2">
-        <v>6.943858623504639</v>
+        <v>7.871468544006348</v>
       </c>
       <c r="DL2">
-        <v>0.8161250948905945</v>
+        <v>-0.6842192411422729</v>
       </c>
       <c r="DM2">
-        <v>-5.163204669952393</v>
+        <v>-5.569427013397217</v>
       </c>
       <c r="DN2">
-        <v>-0.8137465119361877</v>
+        <v>0.1433638781309128</v>
       </c>
       <c r="DO2">
-        <v>-3.805567502975464</v>
+        <v>-5.122590065002441</v>
       </c>
       <c r="DP2">
-        <v>-2.454771995544434</v>
+        <v>-2.602606534957886</v>
       </c>
       <c r="DQ2">
-        <v>-0.05390600115060806</v>
+        <v>0.5586006045341492</v>
       </c>
       <c r="DR2">
-        <v>1.18513560295105</v>
+        <v>2.20955753326416</v>
       </c>
       <c r="DS2">
-        <v>0.390797346830368</v>
+        <v>-0.8257657289505005</v>
       </c>
       <c r="DT2">
-        <v>6.407834053039551</v>
+        <v>8.136271476745605</v>
       </c>
       <c r="DU2">
-        <v>-9.537158012390137</v>
+        <v>-9.345256805419922</v>
       </c>
       <c r="DV2">
-        <v>0.6951042413711548</v>
+        <v>0.9865437150001526</v>
       </c>
       <c r="DW2">
-        <v>-0.6208381056785583</v>
+        <v>-0.3529151976108551</v>
       </c>
       <c r="DX2">
-        <v>-0.1064070612192154</v>
+        <v>0.7766219973564148</v>
       </c>
       <c r="DY2">
-        <v>6.745687484741211</v>
+        <v>6.951037883758545</v>
       </c>
       <c r="DZ2">
-        <v>-0.7303969264030457</v>
+        <v>0.3244651257991791</v>
       </c>
       <c r="EA2">
-        <v>-7.09464693069458</v>
+        <v>-5.681837558746338</v>
       </c>
       <c r="EB2">
-        <v>0.9183621406555176</v>
+        <v>1.731310606002808</v>
       </c>
       <c r="EC2">
-        <v>-0.2068047970533371</v>
+        <v>-0.5615026950836182</v>
       </c>
       <c r="ED2">
-        <v>-9.384844779968262</v>
+        <v>-8.198579788208008</v>
       </c>
       <c r="EE2">
-        <v>0.4994120895862579</v>
+        <v>1.581295013427734</v>
       </c>
       <c r="EF2">
-        <v>12.88973426818848</v>
+        <v>12.2884349822998</v>
       </c>
       <c r="EG2">
-        <v>7.20458984375</v>
+        <v>6.313106536865234</v>
       </c>
       <c r="EH2">
-        <v>-11.73813152313232</v>
+        <v>-12.50754356384277</v>
       </c>
       <c r="EI2">
-        <v>-5.669567108154297</v>
+        <v>-5.028671264648438</v>
       </c>
       <c r="EJ2">
-        <v>-11.05250453948975</v>
+        <v>-8.889832496643066</v>
       </c>
       <c r="EK2">
-        <v>1.660839676856995</v>
+        <v>1.549475073814392</v>
       </c>
       <c r="EL2">
-        <v>-0.5389252901077271</v>
+        <v>-0.2271281778812408</v>
       </c>
       <c r="EM2">
-        <v>8.948758125305176</v>
+        <v>8.940400123596191</v>
       </c>
       <c r="EN2">
-        <v>-9.171302795410156</v>
+        <v>-7.982485771179199</v>
       </c>
       <c r="EO2">
-        <v>1.370431661605835</v>
+        <v>1.462348341941833</v>
       </c>
       <c r="EP2">
-        <v>-4.344726085662842</v>
+        <v>-4.929956436157227</v>
       </c>
       <c r="EQ2">
-        <v>-1.001748561859131</v>
+        <v>-0.3184275031089783</v>
       </c>
       <c r="ER2">
-        <v>-0.5115275382995605</v>
+        <v>-1.348636150360107</v>
       </c>
       <c r="ES2">
-        <v>8.550271987915039</v>
+        <v>7.01035737991333</v>
       </c>
       <c r="ET2">
-        <v>5.553243160247803</v>
+        <v>4.027238845825195</v>
       </c>
       <c r="EU2">
-        <v>-8.67853832244873</v>
+        <v>-7.888838768005371</v>
       </c>
       <c r="EV2">
-        <v>8.376269340515137</v>
+        <v>8.799317359924316</v>
       </c>
       <c r="EW2">
-        <v>-4.197516918182373</v>
+        <v>-3.377870321273804</v>
       </c>
       <c r="EX2">
-        <v>10.33240509033203</v>
+        <v>12.12835121154785</v>
       </c>
       <c r="EY2">
-        <v>0.4735961854457855</v>
+        <v>0.5930851101875305</v>
       </c>
       <c r="EZ2">
-        <v>-0.01482422556728125</v>
+        <v>1.390686750411987</v>
       </c>
       <c r="FA2">
-        <v>-1.299378633499146</v>
+        <v>-0.8163465857505798</v>
       </c>
       <c r="FB2">
-        <v>-0.1534768491983414</v>
+        <v>0.7168650031089783</v>
       </c>
       <c r="FC2">
-        <v>1.649072289466858</v>
+        <v>1.883657336235046</v>
       </c>
       <c r="FD2">
-        <v>0.2492706030607224</v>
+        <v>0.1283831149339676</v>
       </c>
       <c r="FE2">
-        <v>-0.6018878817558289</v>
+        <v>-1.690775156021118</v>
       </c>
       <c r="FF2">
-        <v>1.945623874664307</v>
+        <v>2.613184213638306</v>
       </c>
       <c r="FG2">
-        <v>-15.73849391937256</v>
+        <v>-16.36966896057129</v>
       </c>
       <c r="FH2">
-        <v>-1.404632687568665</v>
+        <v>-1.062516689300537</v>
       </c>
       <c r="FI2">
-        <v>1.772661566734314</v>
+        <v>1.723241209983826</v>
       </c>
       <c r="FJ2">
-        <v>-0.1953068673610687</v>
+        <v>-0.7497579455375671</v>
       </c>
       <c r="FK2">
-        <v>-3.022917747497559</v>
+        <v>-1.664880752563477</v>
       </c>
       <c r="FL2">
-        <v>-14.7163724899292</v>
+        <v>-13.23228168487549</v>
       </c>
       <c r="FM2">
-        <v>10.06039333343506</v>
+        <v>10.62934112548828</v>
       </c>
       <c r="FN2">
-        <v>6.009839534759521</v>
+        <v>4.964851856231689</v>
       </c>
       <c r="FO2">
-        <v>-1.47803521156311</v>
+        <v>-0.3923514485359192</v>
       </c>
       <c r="FP2">
-        <v>-0.9923926591873169</v>
+        <v>-0.3212193548679352</v>
       </c>
       <c r="FQ2">
-        <v>1.507393002510071</v>
+        <v>1.26792848110199</v>
       </c>
       <c r="FR2">
-        <v>0.2722918391227722</v>
+        <v>1.098864197731018</v>
       </c>
       <c r="FS2">
-        <v>-2.257923126220703</v>
+        <v>-2.120291948318481</v>
       </c>
       <c r="FT2">
-        <v>-2.120733261108398</v>
+        <v>-2.814601182937622</v>
       </c>
       <c r="FU2">
-        <v>-6.362468719482422</v>
+        <v>-5.290920257568359</v>
       </c>
       <c r="FV2">
-        <v>-0.3618485331535339</v>
+        <v>-0.3995302021503448</v>
       </c>
       <c r="FW2">
-        <v>-1.388638019561768</v>
+        <v>0.1154335215687752</v>
       </c>
       <c r="FX2">
-        <v>0.1380259841680527</v>
+        <v>0.3244816958904266</v>
       </c>
       <c r="FY2">
-        <v>0.2717108726501465</v>
+        <v>1.213315367698669</v>
       </c>
       <c r="FZ2">
-        <v>0.199085995554924</v>
+        <v>-0.2618371248245239</v>
       </c>
       <c r="GA2">
-        <v>5.394464492797852</v>
+        <v>4.366700649261475</v>
       </c>
       <c r="GB2">
-        <v>-0.4888051152229309</v>
+        <v>-0.1198649555444717</v>
       </c>
       <c r="GC2">
-        <v>-1.258249759674072</v>
+        <v>-0.3595240414142609</v>
       </c>
       <c r="GD2">
-        <v>5.84930419921875</v>
+        <v>6.89680814743042</v>
       </c>
       <c r="GE2">
-        <v>-2.265092134475708</v>
+        <v>-1.841219186782837</v>
       </c>
       <c r="GF2">
-        <v>-10.62985229492188</v>
+        <v>-11.0727596282959</v>
       </c>
       <c r="GG2">
-        <v>4.391307830810547</v>
+        <v>4.260367393493652</v>
       </c>
       <c r="GH2">
-        <v>0.1737763285636902</v>
+        <v>-0.4575212895870209</v>
       </c>
       <c r="GI2">
-        <v>1.83592689037323</v>
+        <v>2.378971576690674</v>
       </c>
       <c r="GJ2">
-        <v>-0.9939705729484558</v>
+        <v>-1.022083878517151</v>
       </c>
       <c r="GK2">
-        <v>-6.99907922744751</v>
+        <v>-8.07957649230957</v>
       </c>
       <c r="GL2">
-        <v>-6.035097122192383</v>
+        <v>-5.506814479827881</v>
       </c>
       <c r="GM2">
-        <v>9.893215179443359</v>
+        <v>11.98087120056152</v>
       </c>
       <c r="GN2">
-        <v>-9.520613670349121</v>
+        <v>-10.79551601409912</v>
       </c>
       <c r="GO2">
-        <v>3.792006015777588</v>
+        <v>3.429398775100708</v>
       </c>
       <c r="GP2">
-        <v>0.725462019443512</v>
+        <v>1.136887431144714</v>
       </c>
       <c r="GQ2">
-        <v>-0.8377336859703064</v>
+        <v>-0.3135647773742676</v>
       </c>
       <c r="GR2">
-        <v>1.506215572357178</v>
+        <v>1.271542429924011</v>
       </c>
       <c r="GS2">
-        <v>-1.450635671615601</v>
+        <v>-1.793787837028503</v>
       </c>
       <c r="GT2">
-        <v>-2.381552219390869</v>
+        <v>-1.106988668441772</v>
       </c>
       <c r="GU2">
-        <v>-2.716151237487793</v>
+        <v>-3.705238580703735</v>
       </c>
       <c r="GV2">
-        <v>-1.314300179481506</v>
+        <v>-0.7594501972198486</v>
       </c>
       <c r="GW2">
-        <v>-0.8321523666381836</v>
+        <v>-0.3643118441104889</v>
       </c>
       <c r="GX2">
-        <v>-1.173674941062927</v>
+        <v>0.1593726575374603</v>
       </c>
       <c r="GY2">
-        <v>-0.5883693695068359</v>
+        <v>0.1922428011894226</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.386184215545654</v>
+        <v>5.925901889801025</v>
       </c>
       <c r="C2" t="n">
-        <v>3.528290510177612</v>
+        <v>4.316512584686279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2803166508674622</v>
+        <v>0.2601997852325439</v>
       </c>
       <c r="E2" t="n">
-        <v>3.745675325393677</v>
+        <v>3.350956439971924</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2376242876052856</v>
+        <v>-0.8514541983604431</v>
       </c>
       <c r="G2" t="n">
-        <v>9.803297996520996</v>
+        <v>9.186002731323242</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09595178067684174</v>
+        <v>-0.4393814504146576</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5752479434013367</v>
+        <v>1.282449007034302</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3042945563793182</v>
+        <v>0.9190364480018616</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5302066206932068</v>
+        <v>1.696214199066162</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.36872673034668</v>
+        <v>-1.718093037605286</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.220374658703804</v>
+        <v>0.06403268128633499</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6507604718208313</v>
+        <v>-0.04061492159962654</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.568985939025879</v>
+        <v>-5.914327621459961</v>
       </c>
       <c r="P2" t="n">
-        <v>11.76181411743164</v>
+        <v>12.48602485656738</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.316011071205139</v>
+        <v>0.5681442618370056</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2447502613067627</v>
+        <v>-0.3608734011650085</v>
       </c>
       <c r="S2" t="n">
-        <v>-9.879281997680664</v>
+        <v>-9.309896469116211</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.051509857177734</v>
+        <v>-4.468860626220703</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.499625205993652</v>
+        <v>-0.7462642788887024</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.7377513647079468</v>
+        <v>-1.427042007446289</v>
       </c>
       <c r="W2" t="n">
-        <v>3.489696979522705</v>
+        <v>4.236308574676514</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.050355315208435</v>
+        <v>-1.820215463638306</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.661716461181641</v>
+        <v>-2.960693836212158</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.040874481201172</v>
+        <v>0.4073466658592224</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.615825772285461</v>
+        <v>-1.724318981170654</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.958504915237427</v>
+        <v>-3.506515502929688</v>
       </c>
       <c r="AC2" t="n">
-        <v>-8.559822082519531</v>
+        <v>-7.684144973754883</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9757760763168335</v>
+        <v>0.5495713353157043</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.669532775878906</v>
+        <v>10.51736164093018</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.630009055137634</v>
+        <v>1.073552131652832</v>
       </c>
       <c r="AG2" t="n">
-        <v>-19.37248229980469</v>
+        <v>-18.77868843078613</v>
       </c>
       <c r="AH2" t="n">
-        <v>-11.38404941558838</v>
+        <v>-10.69404125213623</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.043490886688232</v>
+        <v>4.386593341827393</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5459292531013489</v>
+        <v>0.1575112193822861</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.9601945281028748</v>
+        <v>-1.179240822792053</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.157418251037598</v>
+        <v>0.5495149493217468</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.978491306304932</v>
+        <v>-2.568565607070923</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.45342493057251</v>
+        <v>6.959702491760254</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.080117225646973</v>
+        <v>7.061259269714355</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.142679214477539</v>
+        <v>3.612303733825684</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0625874400138855</v>
+        <v>0.6413467526435852</v>
       </c>
       <c r="AR2" t="n">
-        <v>-10.50538444519043</v>
+        <v>-11.60496807098389</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.569992065429688</v>
+        <v>5.157389640808105</v>
       </c>
       <c r="AT2" t="n">
-        <v>-2.926566123962402</v>
+        <v>-3.839768886566162</v>
       </c>
       <c r="AU2" t="n">
-        <v>-7.559620380401611</v>
+        <v>-8.245977401733398</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.2623072564601898</v>
+        <v>-0.4926340878009796</v>
       </c>
       <c r="AW2" t="n">
-        <v>-3.784279823303223</v>
+        <v>-3.110390663146973</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.306660652160645</v>
+        <v>5.868096351623535</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.01025915145874</v>
+        <v>2.576312780380249</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14.05912208557129</v>
+        <v>13.77272701263428</v>
       </c>
       <c r="BA2" t="n">
-        <v>-3.268321752548218</v>
+        <v>-3.862053632736206</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.074674606323242</v>
+        <v>1.603839516639709</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.491135835647583</v>
+        <v>1.271485328674316</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.189885377883911</v>
+        <v>0.8022039532661438</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.255106687545776</v>
+        <v>-0.4817551672458649</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.75296688079834</v>
+        <v>4.197418689727783</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.1627538800239563</v>
+        <v>-0.8724311590194702</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.1467059701681137</v>
+        <v>0.4001748859882355</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.7961644530296326</v>
+        <v>0.2725901305675507</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.516478300094604</v>
+        <v>3.436203002929688</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2.342496156692505</v>
+        <v>-1.738162875175476</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.039278626441956</v>
+        <v>1.631677389144897</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.2885759174823761</v>
+        <v>-0.2907078862190247</v>
       </c>
       <c r="BN2" t="n">
-        <v>-5.976608753204346</v>
+        <v>-6.775958061218262</v>
       </c>
       <c r="BO2" t="n">
-        <v>-11.04776859283447</v>
+        <v>-12.00590896606445</v>
       </c>
       <c r="BP2" t="n">
-        <v>-1.877595663070679</v>
+        <v>-2.476942539215088</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.487889885902405</v>
+        <v>2.178391695022583</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.3950148820877075</v>
+        <v>-1.337509036064148</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.5986070036888123</v>
+        <v>1.152829885482788</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.8469105958938599</v>
+        <v>0.7941107153892517</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.13336381316185</v>
+        <v>-0.5767128467559814</v>
       </c>
       <c r="BV2" t="n">
-        <v>-9.993827819824219</v>
+        <v>-10.47487640380859</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.4575948119163513</v>
+        <v>-0.4577553570270538</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.182736396789551</v>
+        <v>5.823262691497803</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.537960171699524</v>
+        <v>0.9507011771202087</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.3845624327659607</v>
+        <v>0.1781870126724243</v>
       </c>
       <c r="CA2" t="n">
-        <v>6.446474075317383</v>
+        <v>5.775223731994629</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.043281674385071</v>
+        <v>-0.5368936061859131</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.552342295646667</v>
+        <v>1.074278831481934</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.08891448378562927</v>
+        <v>-0.3270407319068909</v>
       </c>
       <c r="CE2" t="n">
-        <v>-3.52632212638855</v>
+        <v>-4.392848968505859</v>
       </c>
       <c r="CF2" t="n">
-        <v>-3.378903865814209</v>
+        <v>-2.828878879547119</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.807464361190796</v>
+        <v>0.9067344069480896</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.058228254318237</v>
+        <v>0.4616909027099609</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.3160348236560822</v>
+        <v>-0.03407691791653633</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-13.00505542755127</v>
+        <v>-13.67627143859863</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.1315350979566574</v>
+        <v>0.8026314973831177</v>
       </c>
       <c r="CL2" t="n">
-        <v>-3.239511013031006</v>
+        <v>-2.557211399078369</v>
       </c>
       <c r="CM2" t="n">
-        <v>6.912407875061035</v>
+        <v>6.195108413696289</v>
       </c>
       <c r="CN2" t="n">
-        <v>-3.358247518539429</v>
+        <v>-3.969834804534912</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.2665419280529022</v>
+        <v>-0.5593051314353943</v>
       </c>
       <c r="CP2" t="n">
-        <v>8.257359504699707</v>
+        <v>7.644359588623047</v>
       </c>
       <c r="CQ2" t="n">
-        <v>6.757472515106201</v>
+        <v>6.10760498046875</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.4223060607910156</v>
+        <v>0.06015642732381821</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.8788468837738037</v>
+        <v>0.3838762044906616</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.555146098136902</v>
+        <v>-1.535989880561829</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.1331489831209183</v>
+        <v>-0.379182904958725</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.203502893447876</v>
+        <v>0.4673709869384766</v>
       </c>
       <c r="CW2" t="n">
-        <v>-3.172007322311401</v>
+        <v>-3.817039728164673</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.7750829458236694</v>
+        <v>-0.2656308710575104</v>
       </c>
       <c r="CY2" t="n">
-        <v>-3.865566730499268</v>
+        <v>-3.317615032196045</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.04625261947512627</v>
+        <v>-0.4258058667182922</v>
       </c>
       <c r="DA2" t="n">
-        <v>-9.750685691833496</v>
+        <v>-10.60330104827881</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.1937859356403351</v>
+        <v>-0.1833571940660477</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.575929403305054</v>
+        <v>1.882557988166809</v>
       </c>
       <c r="DD2" t="n">
-        <v>-11.6128396987915</v>
+        <v>-10.91722011566162</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.121442079544067</v>
+        <v>-1.461621761322021</v>
       </c>
       <c r="DF2" t="n">
-        <v>7.650919914245605</v>
+        <v>8.313623428344727</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.4636671543121338</v>
+        <v>0.9365748763084412</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.585727691650391</v>
+        <v>5.908916473388672</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.2303659617900848</v>
+        <v>-0.4884824156761169</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-9.033377647399902</v>
+        <v>-9.389980316162109</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.602273941040039</v>
+        <v>8.031868934631348</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.1430910676717758</v>
+        <v>-0.2064945846796036</v>
       </c>
       <c r="DM2" t="n">
-        <v>-5.046109199523926</v>
+        <v>-5.484822273254395</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.2090547233819962</v>
+        <v>-0.9407137632369995</v>
       </c>
       <c r="DO2" t="n">
-        <v>-5.608860492706299</v>
+        <v>-5.850192546844482</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.160194873809814</v>
+        <v>-2.358242511749268</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.1646739989519119</v>
+        <v>-0.3348920047283173</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.732874393463135</v>
+        <v>1.217754721641541</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.3590465784072876</v>
+        <v>-1.025673866271973</v>
       </c>
       <c r="DT2" t="n">
-        <v>7.663976192474365</v>
+        <v>6.838768482208252</v>
       </c>
       <c r="DU2" t="n">
-        <v>-8.830132484436035</v>
+        <v>-8.291165351867676</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.457790970802307</v>
+        <v>0.8218393921852112</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.05135137960314751</v>
+        <v>-1.129773616790771</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.4339981377124786</v>
+        <v>-0.2630929052829742</v>
       </c>
       <c r="DY2" t="n">
-        <v>7.068510055541992</v>
+        <v>6.527360439300537</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.8830252289772034</v>
+        <v>0.2655352354049683</v>
       </c>
       <c r="EA2" t="n">
-        <v>-5.985828876495361</v>
+        <v>-6.664437770843506</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.346857905387878</v>
+        <v>0.7650479078292847</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.4326102733612061</v>
+        <v>-1.032144904136658</v>
       </c>
       <c r="ED2" t="n">
-        <v>-8.572259902954102</v>
+        <v>-9.041056632995605</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.184488296508789</v>
+        <v>0.7722950577735901</v>
       </c>
       <c r="EF2" t="n">
-        <v>11.74730396270752</v>
+        <v>10.99099922180176</v>
       </c>
       <c r="EG2" t="n">
-        <v>5.736610412597656</v>
+        <v>5.108229160308838</v>
       </c>
       <c r="EH2" t="n">
-        <v>-12.98013877868652</v>
+        <v>-12.25739288330078</v>
       </c>
       <c r="EI2" t="n">
-        <v>-4.914104461669922</v>
+        <v>-4.739700794219971</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-8.775362968444824</v>
+        <v>-9.605085372924805</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.241531491279602</v>
+        <v>1.952717661857605</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.6151460409164429</v>
+        <v>-0.2397983372211456</v>
       </c>
       <c r="EM2" t="n">
-        <v>8.901232719421387</v>
+        <v>8.382871627807617</v>
       </c>
       <c r="EN2" t="n">
-        <v>-7.333249092102051</v>
+        <v>-7.221923351287842</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.143537282943726</v>
+        <v>1.178717851638794</v>
       </c>
       <c r="EP2" t="n">
-        <v>-4.487504959106445</v>
+        <v>-5.26108455657959</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.6784082055091858</v>
+        <v>-0.08999147266149521</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.8047650456428528</v>
+        <v>-0.1179120764136314</v>
       </c>
       <c r="ES2" t="n">
-        <v>7.57072925567627</v>
+        <v>8.266464233398438</v>
       </c>
       <c r="ET2" t="n">
-        <v>4.159102439880371</v>
+        <v>4.844626903533936</v>
       </c>
       <c r="EU2" t="n">
-        <v>-7.357215881347656</v>
+        <v>-8.111613273620605</v>
       </c>
       <c r="EV2" t="n">
-        <v>8.550718307495117</v>
+        <v>7.520644664764404</v>
       </c>
       <c r="EW2" t="n">
-        <v>-2.944817543029785</v>
+        <v>-3.218091487884521</v>
       </c>
       <c r="EX2" t="n">
-        <v>12.42112350463867</v>
+        <v>13.10047817230225</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.2062896639108658</v>
+        <v>-0.5306920409202576</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.9788016676902771</v>
+        <v>0.5837415456771851</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.3097739815711975</v>
+        <v>0.3501036763191223</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.2991171479225159</v>
+        <v>-0.01828965730965137</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.802693486213684</v>
+        <v>1.163292050361633</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.1477227061986923</v>
+        <v>-0.2945349216461182</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.218244791030884</v>
+        <v>-1.943538069725037</v>
       </c>
       <c r="FF2" t="n">
-        <v>3.330561876296997</v>
+        <v>3.725114107131958</v>
       </c>
       <c r="FG2" t="n">
-        <v>-16.69959259033203</v>
+        <v>-17.3967456817627</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.411189913749695</v>
+        <v>-1.961481332778931</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.208465933799744</v>
+        <v>0.5048828125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-1.381808161735535</v>
+        <v>-1.924261331558228</v>
       </c>
       <c r="FK2" t="n">
-        <v>-1.179165959358215</v>
+        <v>-1.312512397766113</v>
       </c>
       <c r="FL2" t="n">
-        <v>-13.61960601806641</v>
+        <v>-14.63915157318115</v>
       </c>
       <c r="FM2" t="n">
-        <v>11.14108085632324</v>
+        <v>11.65438652038574</v>
       </c>
       <c r="FN2" t="n">
-        <v>5.433438777923584</v>
+        <v>6.053703784942627</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.9427452087402344</v>
+        <v>-1.785364270210266</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.001792585477232933</v>
+        <v>-0.3041374385356903</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.8829266428947449</v>
+        <v>0.8035829067230225</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.7029434442520142</v>
+        <v>0.2567415833473206</v>
       </c>
       <c r="FS2" t="n">
-        <v>-2.412750005722046</v>
+        <v>-1.924446821212769</v>
       </c>
       <c r="FT2" t="n">
-        <v>-3.184548616409302</v>
+        <v>-3.00306224822998</v>
       </c>
       <c r="FU2" t="n">
-        <v>-5.635030269622803</v>
+        <v>-6.114002704620361</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.7208207845687866</v>
+        <v>-0.4040636122226715</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.2582227289676666</v>
+        <v>-0.8354995846748352</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.1514964550733566</v>
+        <v>-0.4035110771656036</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.7173452377319336</v>
+        <v>-0.06458959728479385</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.2608054280281067</v>
+        <v>1.171339988708496</v>
       </c>
       <c r="GA2" t="n">
-        <v>4.725441455841064</v>
+        <v>5.182024478912354</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.4296756386756897</v>
+        <v>-0.3119243085384369</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.2251459360122681</v>
+        <v>0.4110104441642761</v>
       </c>
       <c r="GD2" t="n">
-        <v>6.457222938537598</v>
+        <v>6.803699970245361</v>
       </c>
       <c r="GE2" t="n">
-        <v>-2.233307838439941</v>
+        <v>-1.993637084960938</v>
       </c>
       <c r="GF2" t="n">
-        <v>-11.44169807434082</v>
+        <v>-10.74939823150635</v>
       </c>
       <c r="GG2" t="n">
-        <v>3.937280416488647</v>
+        <v>4.8835129737854</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.9579792618751526</v>
+        <v>-0.3097983598709106</v>
       </c>
       <c r="GI2" t="n">
-        <v>1.950300216674805</v>
+        <v>1.454713940620422</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.5891512632369995</v>
+        <v>-1.362788319587708</v>
       </c>
       <c r="GK2" t="n">
-        <v>-7.812963008880615</v>
+        <v>-7.347278118133545</v>
       </c>
       <c r="GL2" t="n">
-        <v>-5.790988445281982</v>
+        <v>-6.52077579498291</v>
       </c>
       <c r="GM2" t="n">
-        <v>11.62811851501465</v>
+        <v>10.69930553436279</v>
       </c>
       <c r="GN2" t="n">
-        <v>-10.12986469268799</v>
+        <v>-10.55834579467773</v>
       </c>
       <c r="GO2" t="n">
-        <v>3.106577396392822</v>
+        <v>3.576933145523071</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.7916939258575439</v>
+        <v>1.370379328727722</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.1439954489469528</v>
+        <v>0.9616045355796814</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.68275773525238</v>
+        <v>2.273056983947754</v>
       </c>
       <c r="GS2" t="n">
-        <v>-2.190779209136963</v>
+        <v>-1.636006355285645</v>
       </c>
       <c r="GT2" t="n">
-        <v>-1.560081839561462</v>
+        <v>-0.976932168006897</v>
       </c>
       <c r="GU2" t="n">
-        <v>-3.390267133712769</v>
+        <v>-2.704426288604736</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.3465743362903595</v>
+        <v>0.4302032887935638</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.7634428739547729</v>
+        <v>0.08694171160459518</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.2139275223016739</v>
+        <v>0.5628745555877686</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.1833189874887466</v>
+        <v>-0.5028737187385559</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Classification/Equation/Fast Moving Consumer Goods.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.925901889801025</v>
+        <v>5.570826530456543</v>
       </c>
       <c r="C2" t="n">
-        <v>4.316512584686279</v>
+        <v>4.112565040588379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2601997852325439</v>
+        <v>-0.562741219997406</v>
       </c>
       <c r="E2" t="n">
-        <v>3.350956439971924</v>
+        <v>2.453365564346313</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8514541983604431</v>
+        <v>-1.264172911643982</v>
       </c>
       <c r="G2" t="n">
-        <v>9.186002731323242</v>
+        <v>9.900720596313477</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4393814504146576</v>
+        <v>-1.239869832992554</v>
       </c>
       <c r="I2" t="n">
-        <v>1.282449007034302</v>
+        <v>1.583008289337158</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9190364480018616</v>
+        <v>0.6096751093864441</v>
       </c>
       <c r="K2" t="n">
-        <v>1.696214199066162</v>
+        <v>0.6545270681381226</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.718093037605286</v>
+        <v>-0.715406060218811</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06403268128633499</v>
+        <v>-0.3474702537059784</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.04061492159962654</v>
+        <v>-0.9409418702125549</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.914327621459961</v>
+        <v>-5.332586288452148</v>
       </c>
       <c r="P2" t="n">
-        <v>12.48602485656738</v>
+        <v>12.39733409881592</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5681442618370056</v>
+        <v>-0.02694097347557545</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.3608734011650085</v>
+        <v>0.1689178496599197</v>
       </c>
       <c r="S2" t="n">
-        <v>-9.309896469116211</v>
+        <v>-8.448714256286621</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.468860626220703</v>
+        <v>-4.442217826843262</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.7462642788887024</v>
+        <v>-1.1501145362854</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.427042007446289</v>
+        <v>-1.194366693496704</v>
       </c>
       <c r="W2" t="n">
-        <v>4.236308574676514</v>
+        <v>3.985640287399292</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.820215463638306</v>
+        <v>-1.178369402885437</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.960693836212158</v>
+        <v>-3.5453040599823</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4073466658592224</v>
+        <v>0.101194754242897</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.724318981170654</v>
+        <v>-2.046517133712769</v>
       </c>
       <c r="AB2" t="n">
-        <v>-3.506515502929688</v>
+        <v>-4.189919948577881</v>
       </c>
       <c r="AC2" t="n">
-        <v>-7.684144973754883</v>
+        <v>-7.756740093231201</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5495713353157043</v>
+        <v>0.8771528601646423</v>
       </c>
       <c r="AE2" t="n">
-        <v>10.51736164093018</v>
+        <v>10.09476757049561</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.073552131652832</v>
+        <v>0.4681174159049988</v>
       </c>
       <c r="AG2" t="n">
-        <v>-18.77868843078613</v>
+        <v>-18.41519165039062</v>
       </c>
       <c r="AH2" t="n">
-        <v>-10.69404125213623</v>
+        <v>-10.23628520965576</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.386593341827393</v>
+        <v>4.321622371673584</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1575112193822861</v>
+        <v>-0.5289623141288757</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.179240822792053</v>
+        <v>-1.843596220016479</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5495149493217468</v>
+        <v>0.7312890291213989</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.568565607070923</v>
+        <v>-3.344055414199829</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.959702491760254</v>
+        <v>6.820888996124268</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.061259269714355</v>
+        <v>6.981352806091309</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.612303733825684</v>
+        <v>4.455117702484131</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6413467526435852</v>
+        <v>-0.08192192763090134</v>
       </c>
       <c r="AR2" t="n">
-        <v>-11.60496807098389</v>
+        <v>-12.10536861419678</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.157389640808105</v>
+        <v>5.176439762115479</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.839768886566162</v>
+        <v>-2.949722528457642</v>
       </c>
       <c r="AU2" t="n">
-        <v>-8.245977401733398</v>
+        <v>-8.741691589355469</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.4926340878009796</v>
+        <v>-0.9328474402427673</v>
       </c>
       <c r="AW2" t="n">
-        <v>-3.110390663146973</v>
+        <v>-3.064653873443604</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.868096351623535</v>
+        <v>6.312241077423096</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.576312780380249</v>
+        <v>2.532207250595093</v>
       </c>
       <c r="AZ2" t="n">
-        <v>13.77272701263428</v>
+        <v>12.78116130828857</v>
       </c>
       <c r="BA2" t="n">
-        <v>-3.862053632736206</v>
+        <v>-3.193739891052246</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.603839516639709</v>
+        <v>1.297972679138184</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.271485328674316</v>
+        <v>1.644203543663025</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.8022039532661438</v>
+        <v>1.146672248840332</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.4817551672458649</v>
+        <v>0.09340274333953857</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.197418689727783</v>
+        <v>3.391037702560425</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.8724311590194702</v>
+        <v>-0.6071643233299255</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.4001748859882355</v>
+        <v>-0.2554183006286621</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.2725901305675507</v>
+        <v>0.3965813517570496</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.436203002929688</v>
+        <v>2.642854690551758</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.738162875175476</v>
+        <v>-1.942814588546753</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.631677389144897</v>
+        <v>1.279252886772156</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.2907078862190247</v>
+        <v>-0.6283925175666809</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6.775958061218262</v>
+        <v>-6.154146194458008</v>
       </c>
       <c r="BO2" t="n">
-        <v>-12.00590896606445</v>
+        <v>-12.34025859832764</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2.476942539215088</v>
+        <v>-1.961873054504395</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.178391695022583</v>
+        <v>2.964123487472534</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.337509036064148</v>
+        <v>-0.5118488669395447</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.152829885482788</v>
+        <v>1.159416675567627</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.7941107153892517</v>
+        <v>0.1635773926973343</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.5767128467559814</v>
+        <v>-0.2517882287502289</v>
       </c>
       <c r="BV2" t="n">
-        <v>-10.47487640380859</v>
+        <v>-10.6738224029541</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.4577553570270538</v>
+        <v>0.1984503567218781</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.823262691497803</v>
+        <v>5.749254703521729</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.9507011771202087</v>
+        <v>0.4997652471065521</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1781870126724243</v>
+        <v>-0.2838132679462433</v>
       </c>
       <c r="CA2" t="n">
-        <v>5.775223731994629</v>
+        <v>5.309262275695801</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.5368936061859131</v>
+        <v>-0.1680874526500702</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.074278831481934</v>
+        <v>1.377257823944092</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.3270407319068909</v>
+        <v>0.5235381722450256</v>
       </c>
       <c r="CE2" t="n">
-        <v>-4.392848968505859</v>
+        <v>-4.001426696777344</v>
       </c>
       <c r="CF2" t="n">
-        <v>-2.828878879547119</v>
+        <v>-3.046353101730347</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.9067344069480896</v>
+        <v>1.130674481391907</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.4616909027099609</v>
+        <v>1.197233080863953</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.03407691791653633</v>
+        <v>0.3407846987247467</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-13.67627143859863</v>
+        <v>-14.61051750183105</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.8026314973831177</v>
+        <v>1.066382646560669</v>
       </c>
       <c r="CL2" t="n">
-        <v>-2.557211399078369</v>
+        <v>-2.063219547271729</v>
       </c>
       <c r="CM2" t="n">
-        <v>6.195108413696289</v>
+        <v>7.289281368255615</v>
       </c>
       <c r="CN2" t="n">
-        <v>-3.969834804534912</v>
+        <v>-3.349559545516968</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.5593051314353943</v>
+        <v>-0.1752329766750336</v>
       </c>
       <c r="CP2" t="n">
-        <v>7.644359588623047</v>
+        <v>7.505568981170654</v>
       </c>
       <c r="CQ2" t="n">
-        <v>6.10760498046875</v>
+        <v>6.802611351013184</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.06015642732381821</v>
+        <v>-0.4471348822116852</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.3838762044906616</v>
+        <v>0.6237144470214844</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.535989880561829</v>
+        <v>-1.202024936676025</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.379182904958725</v>
+        <v>0.3385171592235565</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.4673709869384766</v>
+        <v>0.006396584678441286</v>
       </c>
       <c r="CW2" t="n">
-        <v>-3.817039728164673</v>
+        <v>-4.502514839172363</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.2656308710575104</v>
+        <v>-0.6908378601074219</v>
       </c>
       <c r="CY2" t="n">
-        <v>-3.317615032196045</v>
+        <v>-3.717154502868652</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.4258058667182922</v>
+        <v>0.3212192058563232</v>
       </c>
       <c r="DA2" t="n">
-        <v>-10.60330104827881</v>
+        <v>-10.56105899810791</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.1833571940660477</v>
+        <v>-0.9745404124259949</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.882557988166809</v>
+        <v>1.956977128982544</v>
       </c>
       <c r="DD2" t="n">
-        <v>-10.91722011566162</v>
+        <v>-11.00281524658203</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.461621761322021</v>
+        <v>-1.14357054233551</v>
       </c>
       <c r="DF2" t="n">
-        <v>8.313623428344727</v>
+        <v>8.01025390625</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.9365748763084412</v>
+        <v>1.767791271209717</v>
       </c>
       <c r="DH2" t="n">
-        <v>5.908916473388672</v>
+        <v>5.177747249603271</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.4884824156761169</v>
+        <v>0.06095632165670395</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-9.389980316162109</v>
+        <v>-10.17598152160645</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.031868934631348</v>
+        <v>8.082972526550293</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.2064945846796036</v>
+        <v>-0.5626382231712341</v>
       </c>
       <c r="DM2" t="n">
-        <v>-5.484822273254395</v>
+        <v>-6.345095634460449</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.9407137632369995</v>
+        <v>-0.6539390683174133</v>
       </c>
       <c r="DO2" t="n">
-        <v>-5.850192546844482</v>
+        <v>-6.810393333435059</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.358242511749268</v>
+        <v>-2.700916767120361</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.3348920047283173</v>
+        <v>0.001790674868971109</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.217754721641541</v>
+        <v>1.934521555900574</v>
       </c>
       <c r="DS2" t="n">
-        <v>-1.025673866271973</v>
+        <v>-0.4264253675937653</v>
       </c>
       <c r="DT2" t="n">
-        <v>6.838768482208252</v>
+        <v>7.450216293334961</v>
       </c>
       <c r="DU2" t="n">
-        <v>-8.291165351867676</v>
+        <v>-8.417383193969727</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.8218393921852112</v>
+        <v>0.5732973217964172</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.129773616790771</v>
+        <v>-0.7537325620651245</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.2630929052829742</v>
+        <v>0.02153557352721691</v>
       </c>
       <c r="DY2" t="n">
-        <v>6.527360439300537</v>
+        <v>5.504739284515381</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.2655352354049683</v>
+        <v>0.4749991893768311</v>
       </c>
       <c r="EA2" t="n">
-        <v>-6.664437770843506</v>
+        <v>-7.294981002807617</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.7650479078292847</v>
+        <v>1.154817700386047</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.032144904136658</v>
+        <v>-2.235499382019043</v>
       </c>
       <c r="ED2" t="n">
-        <v>-9.041056632995605</v>
+        <v>-8.925731658935547</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.7722950577735901</v>
+        <v>1.154842853546143</v>
       </c>
       <c r="EF2" t="n">
-        <v>10.99099922180176</v>
+        <v>11.07861042022705</v>
       </c>
       <c r="EG2" t="n">
-        <v>5.108229160308838</v>
+        <v>4.373271942138672</v>
       </c>
       <c r="EH2" t="n">
-        <v>-12.25739288330078</v>
+        <v>-12.59805297851562</v>
       </c>
       <c r="EI2" t="n">
-        <v>-4.739700794219971</v>
+        <v>-5.253734111785889</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-9.605085372924805</v>
+        <v>-10.12519454956055</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.952717661857605</v>
+        <v>2.40350079536438</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.2397983372211456</v>
+        <v>0.1478184461593628</v>
       </c>
       <c r="EM2" t="n">
-        <v>8.382871627807617</v>
+        <v>8.112765312194824</v>
       </c>
       <c r="EN2" t="n">
-        <v>-7.221923351287842</v>
+        <v>-6.516902923583984</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.178717851638794</v>
+        <v>1.26541543006897</v>
       </c>
       <c r="EP2" t="n">
-        <v>-5.26108455657959</v>
+        <v>-6.214803218841553</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.08999147266149521</v>
+        <v>0.496552437543869</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.1179120764136314</v>
+        <v>-0.7097256183624268</v>
       </c>
       <c r="ES2" t="n">
-        <v>8.266464233398438</v>
+        <v>8.637882232666016</v>
       </c>
       <c r="ET2" t="n">
-        <v>4.844626903533936</v>
+        <v>5.002078533172607</v>
       </c>
       <c r="EU2" t="n">
-        <v>-8.111613273620605</v>
+        <v>-7.073626518249512</v>
       </c>
       <c r="EV2" t="n">
-        <v>7.520644664764404</v>
+        <v>7.400355339050293</v>
       </c>
       <c r="EW2" t="n">
-        <v>-3.218091487884521</v>
+        <v>-3.936678409576416</v>
       </c>
       <c r="EX2" t="n">
-        <v>13.10047817230225</v>
+        <v>12.18372821807861</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.5306920409202576</v>
+        <v>-0.1998577117919922</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.5837415456771851</v>
+        <v>-0.1396651417016983</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.3501036763191223</v>
+        <v>-0.01077547110617161</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.01828965730965137</v>
+        <v>0.350202351808548</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.163292050361633</v>
+        <v>1.490012645721436</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.2945349216461182</v>
+        <v>0.3969638645648956</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.943538069725037</v>
+        <v>-0.9775702953338623</v>
       </c>
       <c r="FF2" t="n">
-        <v>3.725114107131958</v>
+        <v>4.529525756835938</v>
       </c>
       <c r="FG2" t="n">
-        <v>-17.3967456817627</v>
+        <v>-16.50478363037109</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.961481332778931</v>
+        <v>-1.31406843662262</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.5048828125</v>
+        <v>1.233681440353394</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-1.924261331558228</v>
+        <v>-2.979249715805054</v>
       </c>
       <c r="FK2" t="n">
-        <v>-1.312512397766113</v>
+        <v>-1.892934918403625</v>
       </c>
       <c r="FL2" t="n">
-        <v>-14.63915157318115</v>
+        <v>-14.95621490478516</v>
       </c>
       <c r="FM2" t="n">
-        <v>11.65438652038574</v>
+        <v>10.92634201049805</v>
       </c>
       <c r="FN2" t="n">
-        <v>6.053703784942627</v>
+        <v>5.76069164276123</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.785364270210266</v>
+        <v>-1.761457324028015</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.3041374385356903</v>
+        <v>0.8396998643875122</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.8035829067230225</v>
+        <v>1.196619272232056</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.2567415833473206</v>
+        <v>0.658406138420105</v>
       </c>
       <c r="FS2" t="n">
-        <v>-1.924446821212769</v>
+        <v>-1.507586717605591</v>
       </c>
       <c r="FT2" t="n">
-        <v>-3.00306224822998</v>
+        <v>-2.576780557632446</v>
       </c>
       <c r="FU2" t="n">
-        <v>-6.114002704620361</v>
+        <v>-6.089583873748779</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.4040636122226715</v>
+        <v>-0.1112186089158058</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.8354995846748352</v>
+        <v>-0.6678993701934814</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.4035110771656036</v>
+        <v>0.1878234893083572</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.06458959728479385</v>
+        <v>-0.6942981481552124</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.171339988708496</v>
+        <v>1.922667026519775</v>
       </c>
       <c r="GA2" t="n">
-        <v>5.182024478912354</v>
+        <v>5.00830602645874</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.3119243085384369</v>
+        <v>-1.022383689880371</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.4110104441642761</v>
+        <v>1.310399174690247</v>
       </c>
       <c r="GD2" t="n">
-        <v>6.803699970245361</v>
+        <v>7.841265678405762</v>
       </c>
       <c r="GE2" t="n">
-        <v>-1.993637084960938</v>
+        <v>-1.650458574295044</v>
       </c>
       <c r="GF2" t="n">
-        <v>-10.74939823150635</v>
+        <v>-11.02074337005615</v>
       </c>
       <c r="GG2" t="n">
-        <v>4.8835129737854</v>
+        <v>4.62760591506958</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.3097983598709106</v>
+        <v>-0.7442891597747803</v>
       </c>
       <c r="GI2" t="n">
-        <v>1.454713940620422</v>
+        <v>2.247086048126221</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-1.362788319587708</v>
+        <v>-1.221007823944092</v>
       </c>
       <c r="GK2" t="n">
-        <v>-7.347278118133545</v>
+        <v>-6.679516792297363</v>
       </c>
       <c r="GL2" t="n">
-        <v>-6.52077579498291</v>
+        <v>-7.464478015899658</v>
       </c>
       <c r="GM2" t="n">
-        <v>10.69930553436279</v>
+        <v>10.27447319030762</v>
       </c>
       <c r="GN2" t="n">
-        <v>-10.55834579467773</v>
+        <v>-11.60201930999756</v>
       </c>
       <c r="GO2" t="n">
-        <v>3.576933145523071</v>
+        <v>3.47760009765625</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.370379328727722</v>
+        <v>1.719696402549744</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.9616045355796814</v>
+        <v>0.1743381321430206</v>
       </c>
       <c r="GR2" t="n">
-        <v>2.273056983947754</v>
+        <v>1.305673837661743</v>
       </c>
       <c r="GS2" t="n">
-        <v>-1.636006355285645</v>
+        <v>-2.087355852127075</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.976932168006897</v>
+        <v>-0.8402358293533325</v>
       </c>
       <c r="GU2" t="n">
-        <v>-2.704426288604736</v>
+        <v>-2.454439878463745</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.4302032887935638</v>
+        <v>1.053117394447327</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.08694171160459518</v>
+        <v>0.8525362610816956</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.5628745555877686</v>
+        <v>0.9616066813468933</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.5028737187385559</v>
+        <v>-0.1550774425268173</v>
       </c>
     </row>
   </sheetData>
